--- a/weights.xlsx
+++ b/weights.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danyaou/Documents/2023 Full Time/makena/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9125F2AA-9447-BC42-8B08-201B3FB55FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422266B3-0046-444B-ADF9-9716A9B78AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1660" windowWidth="24640" windowHeight="14320" xr2:uid="{31D944EE-5739-3540-B8C8-E057B6361A15}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="25600" windowHeight="15980" xr2:uid="{31D944EE-5739-3540-B8C8-E057B6361A15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,36 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>U.S.</t>
+  </si>
+  <si>
+    <t>Non-U.S.</t>
+  </si>
+  <si>
+    <t>Long / Short</t>
+  </si>
+  <si>
+    <t>Opportunistic Hedge Funds</t>
+  </si>
+  <si>
+    <t>Buyout</t>
+  </si>
+  <si>
+    <t>Venture Capital</t>
+  </si>
+  <si>
+    <t>Private Alternatives</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Natural Resources</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -106,7 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -122,6 +152,12 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -458,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B27CCD7-409D-8D40-A7F2-47677089F3A7}">
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:Q230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G230"/>
+    <sheetView tabSelected="1" zoomScale="236" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,8 +524,36 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>38807</v>
       </c>
@@ -511,8 +575,38 @@
       <c r="G2" s="5">
         <v>0.33552532947059144</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.15979726684022516</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.25349273928832833</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.14888291120015607</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.4481314801752991E-4</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>38837</v>
       </c>
@@ -534,8 +628,38 @@
       <c r="G3" s="5">
         <v>0.31253041174646901</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.14486495118090917</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.27242125972094156</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.14684960141520706</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.3043865053596606E-2</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>6.4010449001411715E-3</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>38868</v>
       </c>
@@ -557,8 +681,38 @@
       <c r="G4" s="5">
         <v>0.24913850761412576</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.14737018073464322</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.26190077124588113</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5.4884978258087662E-3</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.1500821852189812</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1.59058711154576E-2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>6.3136264167441641E-2</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>1.3481033194799755E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>38898</v>
       </c>
@@ -580,8 +734,38 @@
       <c r="G5" s="5">
         <v>-9.1780775450387292E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.20494693138703413</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.31209309273347408</v>
+      </c>
+      <c r="K5" s="7">
+        <v>5.8414609427264817E-3</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.34623177857497039</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1.8710785858482626E-2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3.1544934238847641E-3</v>
+      </c>
+      <c r="O5" s="7">
+        <v>4.2191160628532893E-4</v>
+      </c>
+      <c r="P5" s="7">
+        <v>7.2341227786106729E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>2.707237796626882E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>38929</v>
       </c>
@@ -603,8 +787,38 @@
       <c r="G6" s="5">
         <v>0.12406137946139731</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.14953782337504615</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.27267454389552626</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3.2389317212883533E-3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.22855798027569185</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.7627679154424147E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2.4623815905312828E-3</v>
+      </c>
+      <c r="O6" s="7">
+        <v>3.6514840726118109E-4</v>
+      </c>
+      <c r="P6" s="7">
+        <v>7.0171215941894946E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>2.9272820161236664E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>38960</v>
       </c>
@@ -626,8 +840,38 @@
       <c r="G7" s="5">
         <v>0.10137675205510298</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.17135779029721554</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.27511578611070459</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3.1915689963371275E-3</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.22618280738199023</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1.6471723022240151E-2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2.8949542867020522E-3</v>
+      </c>
+      <c r="O7" s="7">
+        <v>5.6301359160030012E-4</v>
+      </c>
+      <c r="P7" s="7">
+        <v>7.1638955371771909E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2.951927368761879E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>38990</v>
       </c>
@@ -649,8 +893,38 @@
       <c r="G8" s="5">
         <v>6.677244063825305E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.17686385626703649</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.27947162940622416</v>
+      </c>
+      <c r="K8" s="7">
+        <v>3.3437147946433874E-3</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.25109493243937958</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2.2401757528513033E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <v>3.0502303901479731E-3</v>
+      </c>
+      <c r="O8" s="7">
+        <v>5.9732119431870582E-4</v>
+      </c>
+      <c r="P8" s="7">
+        <v>7.7940050977560155E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1.686501566943821E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>39021</v>
       </c>
@@ -672,8 +946,38 @@
       <c r="G9" s="5">
         <v>0.12367240617764119</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.14970420994517425</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.26810278820358496</v>
+      </c>
+      <c r="K9" s="7">
+        <v>2.7290718653827655E-3</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.21611802584618542</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2.8609885714970064E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2.4895358760932029E-3</v>
+      </c>
+      <c r="O9" s="7">
+        <v>6.9048040277363079E-4</v>
+      </c>
+      <c r="P9" s="7">
+        <v>6.7237859169445885E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>4.1567024062607934E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>39051</v>
       </c>
@@ -695,8 +999,38 @@
       <c r="G10" s="5">
         <v>9.5322202949893492E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.1491969699656937</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.27128393108272975</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2.6834722972106338E-3</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.22814740154793825</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3.5595808615449268E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3.1280195876686625E-3</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1.2381044652526681E-3</v>
+      </c>
+      <c r="P10" s="7">
+        <v>7.2137965299352028E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>4.2037219836810712E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>39082</v>
       </c>
@@ -718,8 +1052,38 @@
       <c r="G11" s="5">
         <v>-1.3663862909453619E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.16691716299858697</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.2846724244211063</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.2352370819816274E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.28966085404428665</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3.8835692524825396E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3.029589326158301E-3</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1.3622147787838428E-3</v>
+      </c>
+      <c r="P11" s="7">
+        <v>8.0147582367658135E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>3.9662876900885789E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>39113</v>
       </c>
@@ -741,8 +1105,38 @@
       <c r="G12" s="5">
         <v>0.11617669280659272</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.14681593246658997</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.26035259841114783</v>
+      </c>
+      <c r="K12" s="7">
+        <v>9.5530884355105768E-3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.2228995426026637</v>
+      </c>
+      <c r="M12" s="7">
+        <v>2.941684094897206E-2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2.5547401044615364E-3</v>
+      </c>
+      <c r="O12" s="7">
+        <v>2.1635054528598005E-3</v>
+      </c>
+      <c r="P12" s="7">
+        <v>7.2454305553713516E-2</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>4.1214879346198163E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>39141</v>
       </c>
@@ -764,8 +1158,38 @@
       <c r="G13" s="5">
         <v>0.10585058652120538</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.14472622806772109</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.26023361888543439</v>
+      </c>
+      <c r="K13" s="7">
+        <v>9.5165279160383323E-3</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.22693590672002262</v>
+      </c>
+      <c r="M13" s="7">
+        <v>3.2553509753690688E-2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3.1140684780289912E-3</v>
+      </c>
+      <c r="O13" s="7">
+        <v>2.6018896204934062E-3</v>
+      </c>
+      <c r="P13" s="7">
+        <v>7.5615680936689869E-2</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>4.0923381295880551E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>39172</v>
       </c>
@@ -787,8 +1211,38 @@
       <c r="G14" s="5">
         <v>5.6544619485130919E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.15434275572287728</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.28581907954972002</v>
+      </c>
+      <c r="K14" s="7">
+        <v>9.9772832631970509E-3</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.24378132970273356</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3.5598660062851631E-2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3.4061653364216922E-3</v>
+      </c>
+      <c r="O14" s="7">
+        <v>3.0571037061660005E-3</v>
+      </c>
+      <c r="P14" s="7">
+        <v>7.7691188615070975E-2</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>3.3286150634576288E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>39202</v>
       </c>
@@ -810,8 +1264,38 @@
       <c r="G15" s="5">
         <v>0.14358729196457901</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.14852853723173076</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.26522740095372133</v>
+      </c>
+      <c r="K15" s="7">
+        <v>7.3335973629682335E-3</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.20589402723051262</v>
+      </c>
+      <c r="M15" s="7">
+        <v>2.6303891085156121E-2</v>
+      </c>
+      <c r="N15" s="7">
+        <v>2.4964618455792431E-3</v>
+      </c>
+      <c r="O15" s="7">
+        <v>2.787408992507184E-3</v>
+      </c>
+      <c r="P15" s="7">
+        <v>6.6232581340355756E-2</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>3.3693973657508682E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>39233</v>
       </c>
@@ -833,8 +1317,38 @@
       <c r="G16" s="5">
         <v>0.13265616562372987</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.14598123899497148</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.25835559153527443</v>
+      </c>
+      <c r="K16" s="7">
+        <v>8.8691180391905784E-3</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.22097309242559249</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2.9795056590559057E-2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2.6584340793608481E-3</v>
+      </c>
+      <c r="O16" s="7">
+        <v>4.0723208551571126E-3</v>
+      </c>
+      <c r="P16" s="7">
+        <v>6.7780616351599696E-2</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>3.3714969013996128E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>39263</v>
       </c>
@@ -856,8 +1370,38 @@
       <c r="G17" s="5">
         <v>9.1398971050075176E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.15168708286393229</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.26502537501579881</v>
+      </c>
+      <c r="K17" s="7">
+        <v>9.1221462877987929E-3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.23656374104312081</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3.4310470760194195E-2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3.4755801721916358E-3</v>
+      </c>
+      <c r="O17" s="7">
+        <v>4.5259215611460251E-3</v>
+      </c>
+      <c r="P17" s="7">
+        <v>6.8624615635257832E-2</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>4.0205015287057312E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>39294</v>
       </c>
@@ -879,8 +1423,38 @@
       <c r="G18" s="5">
         <v>9.0083940193966275E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.14363723911962764</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.26240496222948601</v>
+      </c>
+      <c r="K18" s="7">
+        <v>9.1946854334690759E-3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.22377254291560164</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4.6268052170415852E-2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>6.3265511510401263E-3</v>
+      </c>
+      <c r="O18" s="7">
+        <v>4.4437153985472464E-3</v>
+      </c>
+      <c r="P18" s="7">
+        <v>6.7079354603796493E-2</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>4.4860503425949216E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>39325</v>
       </c>
@@ -902,8 +1476,38 @@
       <c r="G19" s="5">
         <v>5.9283622910448544E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.1515937675402052</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.26322464355190167</v>
+      </c>
+      <c r="K19" s="7">
+        <v>9.141637536908798E-3</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.22548464402557994</v>
+      </c>
+      <c r="M19" s="7">
+        <v>5.1053134764974181E-2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>6.2674501262246132E-3</v>
+      </c>
+      <c r="O19" s="7">
+        <v>4.9374602015649326E-3</v>
+      </c>
+      <c r="P19" s="7">
+        <v>7.7498762420123837E-2</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>5.0252195251757982E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>39355</v>
       </c>
@@ -925,8 +1529,38 @@
       <c r="G20" s="5">
         <v>1.8590749764425422E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.16185868488924887</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.27325794629040445</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.3582105290598487E-2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.23490946714129829</v>
+      </c>
+      <c r="M20" s="7">
+        <v>5.2263319208001799E-2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>6.3388498110736975E-3</v>
+      </c>
+      <c r="O20" s="7">
+        <v>5.262430648521832E-3</v>
+      </c>
+      <c r="P20" s="7">
+        <v>7.9934785796500679E-2</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>5.5516862528056897E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>39386</v>
       </c>
@@ -948,8 +1582,38 @@
       <c r="G21" s="5">
         <v>4.6525161122858549E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.14920350430361404</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.27340499367183052</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1.3829376715120604E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.24871005183655101</v>
+      </c>
+      <c r="M21" s="7">
+        <v>5.4181848646867224E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>6.6974638339417462E-3</v>
+      </c>
+      <c r="O21" s="7">
+        <v>5.6093976585837721E-3</v>
+      </c>
+      <c r="P21" s="7">
+        <v>8.8625044476752832E-2</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>5.8690785512033439E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>39416</v>
       </c>
@@ -971,8 +1635,38 @@
       <c r="G22" s="5">
         <v>6.9412893774579033E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.14601211638793299</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.25757577679351867</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1.4801545551078604E-2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.25748106080373345</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5.8876129745064711E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6.8726189755130163E-3</v>
+      </c>
+      <c r="O22" s="7">
+        <v>6.8739069617979615E-3</v>
+      </c>
+      <c r="P22" s="7">
+        <v>8.7758503636579735E-2</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>5.6070513180315307E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>39447</v>
       </c>
@@ -994,8 +1688,38 @@
       <c r="G23" s="5">
         <v>-4.5496878994688378E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.15020054922146603</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.25502608318631087</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1.5078930358602352E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.28813467682421445</v>
+      </c>
+      <c r="M23" s="7">
+        <v>6.1921682479977702E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7.6372011590267854E-3</v>
+      </c>
+      <c r="O23" s="7">
+        <v>7.7699268462484887E-3</v>
+      </c>
+      <c r="P23" s="7">
+        <v>9.2755589019484316E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>6.5657509755624829E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>39478</v>
       </c>
@@ -1017,8 +1741,38 @@
       <c r="G24" s="5">
         <v>0.11322311324983514</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.12868494062681513</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.18092780674779982</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1.2216944486894537E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.23910428298670569</v>
+      </c>
+      <c r="M24" s="7">
+        <v>5.4587174324531959E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6.5771112980365972E-3</v>
+      </c>
+      <c r="O24" s="7">
+        <v>6.5037911540258841E-3</v>
+      </c>
+      <c r="P24" s="7">
+        <v>9.2428653875996386E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>6.7204513597173887E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>39507</v>
       </c>
@@ -1040,8 +1794,38 @@
       <c r="G25" s="5">
         <v>8.1708726115601316E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.12584372749891837</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.18935234262054007</v>
+      </c>
+      <c r="K25" s="7">
+        <v>1.2344757542287825E-2</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.2541062917773983</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5.9080067272496414E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>6.7187182696216942E-3</v>
+      </c>
+      <c r="O25" s="7">
+        <v>7.2734691780379996E-3</v>
+      </c>
+      <c r="P25" s="7">
+        <v>9.1851515694597305E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>7.1861885643767193E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>39538</v>
       </c>
@@ -1063,8 +1847,38 @@
       <c r="G26" s="5">
         <v>5.5659219878682477E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.12775012162968943</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.18848285884882321</v>
+      </c>
+      <c r="K26" s="7">
+        <v>1.6614036056831104E-2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.26469164246725946</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6.5521263023190779E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7.585166834809547E-3</v>
+      </c>
+      <c r="O26" s="7">
+        <v>7.6796415674482664E-3</v>
+      </c>
+      <c r="P26" s="7">
+        <v>9.8658052258733767E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>5.8539924951322736E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>39568</v>
       </c>
@@ -1086,8 +1900,38 @@
       <c r="G27" s="5">
         <v>2.8841526263434725E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.13114808907180064</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.19456551835941643</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1.6385529093271345E-2</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.26888653746158353</v>
+      </c>
+      <c r="M27" s="7">
+        <v>7.0149702325703459E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7.688595157623569E-3</v>
+      </c>
+      <c r="O27" s="7">
+        <v>8.6366357808464293E-3</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0.10241254224157427</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>6.1867449355511341E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>39599</v>
       </c>
@@ -1109,8 +1953,38 @@
       <c r="G28" s="5">
         <v>1.9270249464990712E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.1318740433484471</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.19300688447453909</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1.6583197065020844E-2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.27960321049701886</v>
+      </c>
+      <c r="M28" s="7">
+        <v>7.3647616360151491E-2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>7.9365106836774037E-3</v>
+      </c>
+      <c r="O28" s="7">
+        <v>8.7227723957113892E-3</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0.10155726965410368</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>6.8035497803298609E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>39629</v>
       </c>
@@ -1132,8 +2006,38 @@
       <c r="G29" s="5">
         <v>1.2338066719843341E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.12176841397742623</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.17946568178321654</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1.6862332117554685E-2</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.29095852239844694</v>
+      </c>
+      <c r="M29" s="7">
+        <v>8.1391853361553843E-2</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.742755769733334E-3</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1.0202071825176084E-2</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0.10504246452825702</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>7.1943602441259663E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>39660</v>
       </c>
@@ -1155,8 +2059,38 @@
       <c r="G30" s="5">
         <v>6.85720952411963E-4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.12499584131048176</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.18261932568251971</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1.6524102271558049E-2</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.2827883513345702</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8.8314867117152737E-2</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9.7537144372408773E-3</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1.1259981807475216E-2</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0.1139527176485321</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>6.3579567508625895E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>39691</v>
       </c>
@@ -1178,8 +2112,38 @@
       <c r="G31" s="5">
         <v>-8.1915815194544463E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.12794243846852343</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.18235979732170968</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1.6257981686045472E-2</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.28278948045938646</v>
+      </c>
+      <c r="M31" s="7">
+        <v>9.3985711303626179E-2</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1.054354085280635E-2</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1.181869869662157E-2</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0.1189571985646197</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>5.8943457914578092E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>39721</v>
       </c>
@@ -1201,8 +2165,38 @@
       <c r="G32" s="5">
         <v>-2.3862006585391088E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.12408830389089445</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.17754418908994249</v>
+      </c>
+      <c r="K32" s="7">
+        <v>1.7304607735775097E-2</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.28285799595855232</v>
+      </c>
+      <c r="M32" s="7">
+        <v>9.4255390339750639E-2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1.2111090145203821E-2</v>
+      </c>
+      <c r="O32" s="7">
+        <v>1.2517699250988102E-2</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0.1400556347680251</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>5.2421045457351316E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>39752</v>
       </c>
@@ -1224,8 +2218,38 @@
       <c r="G33" s="5">
         <v>-4.7477158247643113E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.13026741775310566</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.16648621736743074</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1.8749266455686819E-2</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.29818719963706408</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0.10582567701549182</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1.3979970861081627E-2</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1.65822786377951E-2</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0.13478987732091549</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>4.6652501783948058E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>39782</v>
       </c>
@@ -1247,8 +2271,38 @@
       <c r="G34" s="5">
         <v>-5.5052994071801711E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.12573899293247215</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.18380262158441249</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1.9591210497164085E-2</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.29742025826164903</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0.11818505982517273</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1.4892908647559365E-2</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1.7874688155200484E-2</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0.1342143417147989</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>5.0761815622565126E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>39813</v>
       </c>
@@ -1270,8 +2324,38 @@
       <c r="G35" s="5">
         <v>-5.5339568041881802E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.1279408358553614</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.18793637370718169</v>
+      </c>
+      <c r="K35" s="7">
+        <v>2.7803296568916044E-2</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.29919121435518214</v>
+      </c>
+      <c r="M35" s="7">
+        <v>0.10492675382431761</v>
+      </c>
+      <c r="N35" s="7">
+        <v>1.4502160424053889E-2</v>
+      </c>
+      <c r="O35" s="7">
+        <v>1.6820035464003135E-2</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0.12887485465511206</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>5.6009188192535621E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>39844</v>
       </c>
@@ -1293,8 +2377,38 @@
       <c r="G36" s="5">
         <v>5.5457059169466021E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.10801390719694806</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.15421903642673682</v>
+      </c>
+      <c r="K36" s="7">
+        <v>2.6067081016162928E-2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.27839147955157928</v>
+      </c>
+      <c r="M36" s="7">
+        <v>9.7604722531080199E-2</v>
+      </c>
+      <c r="N36" s="7">
+        <v>1.3184406310030195E-2</v>
+      </c>
+      <c r="O36" s="7">
+        <v>1.4993396428776605E-2</v>
+      </c>
+      <c r="P36" s="7">
+        <v>0.11262630327941649</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>5.8501849717677898E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>39872</v>
       </c>
@@ -1316,8 +2430,38 @@
       <c r="G37" s="5">
         <v>0.11683249143301566</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="7">
+        <v>7.8047025177725937E-2</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.11937196423216151</v>
+      </c>
+      <c r="K37" s="7">
+        <v>2.7404622300052944E-2</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.28276231432167798</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.10159658463368074</v>
+      </c>
+      <c r="N37" s="7">
+        <v>1.3960105186145677E-2</v>
+      </c>
+      <c r="O37" s="7">
+        <v>1.5168261437780812E-2</v>
+      </c>
+      <c r="P37" s="7">
+        <v>0.10528407786109377</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>5.9766899811176014E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>39903</v>
       </c>
@@ -1339,8 +2483,38 @@
       <c r="G38" s="5">
         <v>0.10684079631508769</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8.3605582303492562E-2</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.12813964727014085</v>
+      </c>
+      <c r="K38" s="7">
+        <v>2.6615610292160197E-2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.28626227694154377</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.1011742007351394</v>
+      </c>
+      <c r="N38" s="7">
+        <v>1.3789651381830413E-2</v>
+      </c>
+      <c r="O38" s="7">
+        <v>1.6438052184785508E-2</v>
+      </c>
+      <c r="P38" s="7">
+        <v>9.3264828936196004E-2</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>5.5473818543629816E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>39933</v>
       </c>
@@ -1362,8 +2536,38 @@
       <c r="G39" s="5">
         <v>0.13861235856131474</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="7">
+        <v>7.9442868464339733E-2</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.1302805532146053</v>
+      </c>
+      <c r="K39" s="7">
+        <v>2.4984256412475831E-2</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.26974318373747463</v>
+      </c>
+      <c r="M39" s="7">
+        <v>9.908434111001467E-2</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1.3735602261520135E-2</v>
+      </c>
+      <c r="O39" s="7">
+        <v>1.6200464827965767E-2</v>
+      </c>
+      <c r="P39" s="7">
+        <v>8.9891619397872616E-2</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>5.9799395342412201E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39964</v>
       </c>
@@ -1385,8 +2589,38 @@
       <c r="G40" s="5">
         <v>0.14367079341608591</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="7">
+        <v>7.7218798449063167E-2</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.13037186888294341</v>
+      </c>
+      <c r="K40" s="7">
+        <v>2.4929335584528058E-2</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.26806549041895905</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0.1002082695645366</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1.317431097553597E-2</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1.7921615373255092E-2</v>
+      </c>
+      <c r="P40" s="7">
+        <v>8.6408990976848177E-2</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>6.2384230983969939E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39994</v>
       </c>
@@ -1408,8 +2642,38 @@
       <c r="G41" s="5">
         <v>0.17750266842757645</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="7">
+        <v>7.0575199783243586E-2</v>
+      </c>
+      <c r="J41" s="7">
+        <v>9.4487596373202323E-2</v>
+      </c>
+      <c r="K41" s="7">
+        <v>2.3149282300722433E-2</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.26951868827144276</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0.10574697891176112</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1.3039380258347812E-2</v>
+      </c>
+      <c r="O41" s="7">
+        <v>2.1599877894167698E-2</v>
+      </c>
+      <c r="P41" s="7">
+        <v>8.3456683541817789E-2</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>6.0950789330437016E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40025</v>
       </c>
@@ -1431,8 +2695,38 @@
       <c r="G42" s="5">
         <v>0.16443952263591249</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="7">
+        <v>8.1798064999329012E-2</v>
+      </c>
+      <c r="J42" s="7">
+        <v>9.5488818959635374E-2</v>
+      </c>
+      <c r="K42" s="7">
+        <v>2.266912214948719E-2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.26148445365159595</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0.1020756506755937</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1.3284906422285039E-2</v>
+      </c>
+      <c r="O42" s="7">
+        <v>2.1782152656158724E-2</v>
+      </c>
+      <c r="P42" s="7">
+        <v>8.18125467286661E-2</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>5.9355050764642224E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>40056</v>
       </c>
@@ -1454,8 +2748,38 @@
       <c r="G43" s="5">
         <v>0.13203889506455987</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="7">
+        <v>8.2421233279659001E-2</v>
+      </c>
+      <c r="J43" s="7">
+        <v>9.9370023939837099E-2</v>
+      </c>
+      <c r="K43" s="7">
+        <v>2.8197947435628659E-2</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.2653731208482637</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0.10380484601650862</v>
+      </c>
+      <c r="N43" s="7">
+        <v>1.3645275354209334E-2</v>
+      </c>
+      <c r="O43" s="7">
+        <v>2.207497741740904E-2</v>
+      </c>
+      <c r="P43" s="7">
+        <v>8.089106632525056E-2</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>6.083385475708681E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>40086</v>
       </c>
@@ -1477,8 +2801,38 @@
       <c r="G44" s="5">
         <v>9.3445436484464919E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="7">
+        <v>8.0124682415183585E-2</v>
+      </c>
+      <c r="J44" s="7">
+        <v>9.8141200286696234E-2</v>
+      </c>
+      <c r="K44" s="7">
+        <v>2.7573600802777279E-2</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.27684936332432708</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0.11111359018134673</v>
+      </c>
+      <c r="N44" s="7">
+        <v>1.4131186735108985E-2</v>
+      </c>
+      <c r="O44" s="7">
+        <v>2.4041346871985877E-2</v>
+      </c>
+      <c r="P44" s="7">
+        <v>7.9499808868112337E-2</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>6.5769895965950398E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>40117</v>
       </c>
@@ -1500,8 +2854,38 @@
       <c r="G45" s="5">
         <v>7.919368681019745E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="7">
+        <v>7.8558591347248727E-2</v>
+      </c>
+      <c r="J45" s="7">
+        <v>9.6422374248020956E-2</v>
+      </c>
+      <c r="K45" s="7">
+        <v>2.7838416641894636E-2</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.29427374401507111</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0.1155391365557086</v>
+      </c>
+      <c r="N45" s="7">
+        <v>1.4414344056031161E-2</v>
+      </c>
+      <c r="O45" s="7">
+        <v>2.4299083569899217E-2</v>
+      </c>
+      <c r="P45" s="7">
+        <v>7.8732465461751916E-2</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>7.0517615930144259E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>40147</v>
       </c>
@@ -1523,8 +2907,38 @@
       <c r="G46" s="5">
         <v>6.7680461558493804E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="7">
+        <v>8.1055283951365409E-2</v>
+      </c>
+      <c r="J46" s="7">
+        <v>9.6145737221065827E-2</v>
+      </c>
+      <c r="K46" s="7">
+        <v>2.8244819080162471E-2</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.29507185095470068</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0.11641803587505536</v>
+      </c>
+      <c r="N46" s="7">
+        <v>1.4389963989440436E-2</v>
+      </c>
+      <c r="O46" s="7">
+        <v>2.5202897363620066E-2</v>
+      </c>
+      <c r="P46" s="7">
+        <v>7.8566149434980317E-2</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>7.5564548017150179E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>40178</v>
       </c>
@@ -1546,8 +2960,38 @@
       <c r="G47" s="5">
         <v>5.3595441747446973E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="7">
+        <v>8.5418237164129135E-2</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.10219502589738863</v>
+      </c>
+      <c r="K47" s="7">
+        <v>2.9146241281827946E-2</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.28216614577399196</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0.12779152037005631</v>
+      </c>
+      <c r="N47" s="7">
+        <v>1.5004473552666001E-2</v>
+      </c>
+      <c r="O47" s="7">
+        <v>2.6221714606936491E-2</v>
+      </c>
+      <c r="P47" s="7">
+        <v>7.8531011645372018E-2</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>7.5675771646639176E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>40209</v>
       </c>
@@ -1569,8 +3013,38 @@
       <c r="G48" s="5">
         <v>6.7486960191126696E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="7">
+        <v>7.9132782965020354E-2</v>
+      </c>
+      <c r="J48" s="7">
+        <v>9.2192698128653133E-2</v>
+      </c>
+      <c r="K48" s="7">
+        <v>3.7213058977950388E-2</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.27381345795882472</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0.1275597091163635</v>
+      </c>
+      <c r="N48" s="7">
+        <v>1.4632295447481946E-2</v>
+      </c>
+      <c r="O48" s="7">
+        <v>2.637778011590048E-2</v>
+      </c>
+      <c r="P48" s="7">
+        <v>7.6018622331412558E-2</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>7.4511265017467521E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>40237</v>
       </c>
@@ -1592,8 +3066,38 @@
       <c r="G49" s="5">
         <v>5.9467340730303207E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="7">
+        <v>8.4656649462115124E-2</v>
+      </c>
+      <c r="J49" s="7">
+        <v>9.0197747522046998E-2</v>
+      </c>
+      <c r="K49" s="7">
+        <v>3.7880567636555409E-2</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.27231828302378852</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0.12646791148382652</v>
+      </c>
+      <c r="N49" s="7">
+        <v>1.4479093358850325E-2</v>
+      </c>
+      <c r="O49" s="7">
+        <v>2.8343651682225985E-2</v>
+      </c>
+      <c r="P49" s="7">
+        <v>7.3967514054549627E-2</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>8.175663939999589E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>40268</v>
       </c>
@@ -1615,8 +3119,38 @@
       <c r="G50" s="5">
         <v>4.5947817937822585E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="7">
+        <v>8.3024849121312264E-2</v>
+      </c>
+      <c r="J50" s="7">
+        <v>9.390881337617292E-2</v>
+      </c>
+      <c r="K50" s="7">
+        <v>3.7493384033881055E-2</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.27296704675882993</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0.12901278180939649</v>
+      </c>
+      <c r="N50" s="7">
+        <v>1.4498430766232548E-2</v>
+      </c>
+      <c r="O50" s="7">
+        <v>3.0006955088120287E-2</v>
+      </c>
+      <c r="P50" s="7">
+        <v>7.3960294131498835E-2</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>8.1136164550556791E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>40298</v>
       </c>
@@ -1638,8 +3172,38 @@
       <c r="G51" s="5">
         <v>3.2608476991233017E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="7">
+        <v>8.5860298850771691E-2</v>
+      </c>
+      <c r="J51" s="7">
+        <v>9.4333312672095396E-2</v>
+      </c>
+      <c r="K51" s="7">
+        <v>3.7716312700404035E-2</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.27216977400007453</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.13618797121045614</v>
+      </c>
+      <c r="N51" s="7">
+        <v>1.4619383813852384E-2</v>
+      </c>
+      <c r="O51" s="7">
+        <v>2.7172485221393736E-2</v>
+      </c>
+      <c r="P51" s="7">
+        <v>7.4405494524700924E-2</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>8.447213933468338E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>40329</v>
       </c>
@@ -1661,8 +3225,38 @@
       <c r="G52" s="5">
         <v>2.7022754729313394E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="7">
+        <v>8.522152330019768E-2</v>
+      </c>
+      <c r="J52" s="7">
+        <v>9.6225273821809065E-2</v>
+      </c>
+      <c r="K52" s="7">
+        <v>3.7603737329910736E-2</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.27588721707545183</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0.14026605894599187</v>
+      </c>
+      <c r="N52" s="7">
+        <v>1.5690533734817803E-2</v>
+      </c>
+      <c r="O52" s="7">
+        <v>2.7638445618740744E-2</v>
+      </c>
+      <c r="P52" s="7">
+        <v>7.8362429932135574E-2</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>8.1105890048143406E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>40359</v>
       </c>
@@ -1684,8 +3278,38 @@
       <c r="G53" s="5">
         <v>2.7609100823428497E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="7">
+        <v>8.3246197163104677E-2</v>
+      </c>
+      <c r="J53" s="7">
+        <v>9.2867758262798444E-2</v>
+      </c>
+      <c r="K53" s="7">
+        <v>3.6931210913855143E-2</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.27687153219687699</v>
+      </c>
+      <c r="M53" s="7">
+        <v>0.14614767149679994</v>
+      </c>
+      <c r="N53" s="7">
+        <v>1.6691307999018461E-2</v>
+      </c>
+      <c r="O53" s="7">
+        <v>2.8377347727775223E-2</v>
+      </c>
+      <c r="P53" s="7">
+        <v>8.3382825142813727E-2</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>8.4740272301058572E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>40390</v>
       </c>
@@ -1707,8 +3331,38 @@
       <c r="G54" s="5">
         <v>1.4039975111153229E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="7">
+        <v>8.6504138627070126E-2</v>
+      </c>
+      <c r="J54" s="7">
+        <v>9.8136184677864724E-2</v>
+      </c>
+      <c r="K54" s="7">
+        <v>4.2647894302881385E-2</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.27611814907439652</v>
+      </c>
+      <c r="M54" s="7">
+        <v>0.14848262764567952</v>
+      </c>
+      <c r="N54" s="7">
+        <v>1.64242703402507E-2</v>
+      </c>
+      <c r="O54" s="7">
+        <v>2.7299977919880231E-2</v>
+      </c>
+      <c r="P54" s="7">
+        <v>8.5432245419013106E-2</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>8.9723570487797139E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>40421</v>
       </c>
@@ -1730,8 +3384,38 @@
       <c r="G55" s="5">
         <v>3.4451460176491526E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="7">
+        <v>8.3023137205047809E-2</v>
+      </c>
+      <c r="J55" s="7">
+        <v>9.4936929474873394E-2</v>
+      </c>
+      <c r="K55" s="7">
+        <v>4.2818546402000127E-2</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.26605177364623556</v>
+      </c>
+      <c r="M55" s="7">
+        <v>0.15177886926601855</v>
+      </c>
+      <c r="N55" s="7">
+        <v>1.6722400628100174E-2</v>
+      </c>
+      <c r="O55" s="7">
+        <v>2.6943948245358614E-2</v>
+      </c>
+      <c r="P55" s="7">
+        <v>8.6043919291801246E-2</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>8.8553951311467635E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>40451</v>
       </c>
@@ -1753,8 +3437,38 @@
       <c r="G56" s="5">
         <v>6.0274348361685957E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="7">
+        <v>8.5727167278054517E-2</v>
+      </c>
+      <c r="J56" s="7">
+        <v>9.7274131821897231E-2</v>
+      </c>
+      <c r="K56" s="7">
+        <v>4.2747164737492516E-2</v>
+      </c>
+      <c r="L56" s="7">
+        <v>0.23082079726162008</v>
+      </c>
+      <c r="M56" s="7">
+        <v>0.15179571138559594</v>
+      </c>
+      <c r="N56" s="7">
+        <v>1.6997715089388032E-2</v>
+      </c>
+      <c r="O56" s="7">
+        <v>2.7476036348353647E-2</v>
+      </c>
+      <c r="P56" s="7">
+        <v>8.6702831142888362E-2</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>9.2149535997747084E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>40482</v>
       </c>
@@ -1776,8 +3490,38 @@
       <c r="G57" s="5">
         <v>5.8916035659076743E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="7">
+        <v>8.6323948319667235E-2</v>
+      </c>
+      <c r="J57" s="7">
+        <v>9.600042918376743E-2</v>
+      </c>
+      <c r="K57" s="7">
+        <v>4.3395485326969734E-2</v>
+      </c>
+      <c r="L57" s="7">
+        <v>0.23726914085976153</v>
+      </c>
+      <c r="M57" s="7">
+        <v>0.15012822566883824</v>
+      </c>
+      <c r="N57" s="7">
+        <v>1.7203364907056696E-2</v>
+      </c>
+      <c r="O57" s="7">
+        <v>2.7286268362229749E-2</v>
+      </c>
+      <c r="P57" s="7">
+        <v>8.7344103268450976E-2</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>9.4324928886845211E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>40512</v>
       </c>
@@ -1799,8 +3543,38 @@
       <c r="G58" s="5">
         <v>4.9648577642063429E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="7">
+        <v>8.601107885685344E-2</v>
+      </c>
+      <c r="J58" s="7">
+        <v>9.6379091856640398E-2</v>
+      </c>
+      <c r="K58" s="7">
+        <v>4.8052787076539462E-2</v>
+      </c>
+      <c r="L58" s="7">
+        <v>0.2362278018701206</v>
+      </c>
+      <c r="M58" s="7">
+        <v>0.15410432271636096</v>
+      </c>
+      <c r="N58" s="7">
+        <v>1.7781541847219088E-2</v>
+      </c>
+      <c r="O58" s="7">
+        <v>2.594312853179458E-2</v>
+      </c>
+      <c r="P58" s="7">
+        <v>9.3515275283670707E-2</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>9.3818085650576519E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>40543</v>
       </c>
@@ -1822,8 +3596,38 @@
       <c r="G59" s="5">
         <v>4.3736007047032566E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="7">
+        <v>8.7753911774520466E-2</v>
+      </c>
+      <c r="J59" s="7">
+        <v>9.4436456302758043E-2</v>
+      </c>
+      <c r="K59" s="7">
+        <v>4.8444365522145517E-2</v>
+      </c>
+      <c r="L59" s="7">
+        <v>0.2314247152754465</v>
+      </c>
+      <c r="M59" s="7">
+        <v>0.16509715298887181</v>
+      </c>
+      <c r="N59" s="7">
+        <v>1.7944051695068419E-2</v>
+      </c>
+      <c r="O59" s="7">
+        <v>2.5454578461765773E-2</v>
+      </c>
+      <c r="P59" s="7">
+        <v>9.3926528647090071E-2</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>9.7340340857718935E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>40574</v>
       </c>
@@ -1845,8 +3649,38 @@
       <c r="G60" s="5">
         <v>5.1774389068273009E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="7">
+        <v>8.7202748716351808E-2</v>
+      </c>
+      <c r="J60" s="7">
+        <v>9.2552771252136734E-2</v>
+      </c>
+      <c r="K60" s="7">
+        <v>5.255039822248523E-2</v>
+      </c>
+      <c r="L60" s="7">
+        <v>0.22533669942394782</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0.16167795907676946</v>
+      </c>
+      <c r="N60" s="7">
+        <v>1.6842799083571152E-2</v>
+      </c>
+      <c r="O60" s="7">
+        <v>2.3704787645136317E-2</v>
+      </c>
+      <c r="P60" s="7">
+        <v>9.1433126021043809E-2</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>0.10013913200581337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>40602</v>
       </c>
@@ -1868,8 +3702,38 @@
       <c r="G61" s="5">
         <v>3.5735549211495882E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="7">
+        <v>9.0870750749314735E-2</v>
+      </c>
+      <c r="J61" s="7">
+        <v>9.6653034922135964E-2</v>
+      </c>
+      <c r="K61" s="7">
+        <v>5.6396127065447409E-2</v>
+      </c>
+      <c r="L61" s="7">
+        <v>0.22582444423282952</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0.16199030629708092</v>
+      </c>
+      <c r="N61" s="7">
+        <v>1.7120979907520012E-2</v>
+      </c>
+      <c r="O61" s="7">
+        <v>2.2844634096359378E-2</v>
+      </c>
+      <c r="P61" s="7">
+        <v>9.18078896499325E-2</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>0.10403006170879393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>40633</v>
       </c>
@@ -1891,8 +3755,38 @@
       <c r="G62" s="5">
         <v>2.7502484515340375E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="7">
+        <v>9.0564161061407994E-2</v>
+      </c>
+      <c r="J62" s="7">
+        <v>9.7467877269372338E-2</v>
+      </c>
+      <c r="K62" s="7">
+        <v>5.548667419850746E-2</v>
+      </c>
+      <c r="L62" s="7">
+        <v>0.22430003255904854</v>
+      </c>
+      <c r="M62" s="7">
+        <v>0.16683800752909606</v>
+      </c>
+      <c r="N62" s="7">
+        <v>1.8249921236307465E-2</v>
+      </c>
+      <c r="O62" s="7">
+        <v>2.3668507906368395E-2</v>
+      </c>
+      <c r="P62" s="7">
+        <v>9.591859468162818E-2</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>9.9922019163195402E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>40663</v>
       </c>
@@ -1914,8 +3808,38 @@
       <c r="G63" s="5">
         <v>2.1443847726842036E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="7">
+        <v>9.7721056582925542E-2</v>
+      </c>
+      <c r="J63" s="7">
+        <v>9.7447629070027048E-2</v>
+      </c>
+      <c r="K63" s="7">
+        <v>5.62348502743251E-2</v>
+      </c>
+      <c r="L63" s="7">
+        <v>0.21796319723959171</v>
+      </c>
+      <c r="M63" s="7">
+        <v>0.1691074154233308</v>
+      </c>
+      <c r="N63" s="7">
+        <v>1.8413693811816224E-2</v>
+      </c>
+      <c r="O63" s="7">
+        <v>2.306040556726929E-2</v>
+      </c>
+      <c r="P63" s="7">
+        <v>9.7734651374982662E-2</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>9.9836230959582953E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>40694</v>
       </c>
@@ -1937,8 +3861,38 @@
       <c r="G64" s="5">
         <v>1.7525502130288174E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="7">
+        <v>9.6854898727286101E-2</v>
+      </c>
+      <c r="J64" s="7">
+        <v>0.10185666607078925</v>
+      </c>
+      <c r="K64" s="7">
+        <v>5.688240966949084E-2</v>
+      </c>
+      <c r="L64" s="7">
+        <v>0.21955768643224449</v>
+      </c>
+      <c r="M64" s="7">
+        <v>0.17048418081595312</v>
+      </c>
+      <c r="N64" s="7">
+        <v>1.8962371067527475E-2</v>
+      </c>
+      <c r="O64" s="7">
+        <v>2.2660165530254496E-2</v>
+      </c>
+      <c r="P64" s="7">
+        <v>9.7523809991474572E-2</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>9.5090864090932675E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>40724</v>
       </c>
@@ -1960,8 +3914,38 @@
       <c r="G65" s="5">
         <v>2.589950476656273E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="7">
+        <v>9.5823086001618499E-2</v>
+      </c>
+      <c r="J65" s="7">
+        <v>9.8216882275491663E-2</v>
+      </c>
+      <c r="K65" s="7">
+        <v>5.6017504977798678E-2</v>
+      </c>
+      <c r="L65" s="7">
+        <v>0.21163134063633288</v>
+      </c>
+      <c r="M65" s="7">
+        <v>0.1754990573439448</v>
+      </c>
+      <c r="N65" s="7">
+        <v>1.893306328941164E-2</v>
+      </c>
+      <c r="O65" s="7">
+        <v>2.297082133144867E-2</v>
+      </c>
+      <c r="P65" s="7">
+        <v>0.10287289019862786</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>9.2843442439073762E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>40755</v>
       </c>
@@ -1983,8 +3967,38 @@
       <c r="G66" s="5">
         <v>2.4433951355834992E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="7">
+        <v>9.8357062952752886E-2</v>
+      </c>
+      <c r="J66" s="7">
+        <v>9.2462136827249547E-2</v>
+      </c>
+      <c r="K66" s="7">
+        <v>5.4596131624148954E-2</v>
+      </c>
+      <c r="L66" s="7">
+        <v>0.21011946279212768</v>
+      </c>
+      <c r="M66" s="7">
+        <v>0.17946851496462152</v>
+      </c>
+      <c r="N66" s="7">
+        <v>2.1557570830841689E-2</v>
+      </c>
+      <c r="O66" s="7">
+        <v>2.1660350296558641E-2</v>
+      </c>
+      <c r="P66" s="7">
+        <v>0.1053068517349455</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>9.4163130288449096E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>40786</v>
       </c>
@@ -2006,8 +4020,38 @@
       <c r="G67" s="5">
         <v>1.7648061293565668E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="7">
+        <v>9.7166863504935835E-2</v>
+      </c>
+      <c r="J67" s="7">
+        <v>9.8043308439414958E-2</v>
+      </c>
+      <c r="K67" s="7">
+        <v>5.2590084388344553E-2</v>
+      </c>
+      <c r="L67" s="7">
+        <v>0.21307320867833049</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0.18800836087020875</v>
+      </c>
+      <c r="N67" s="7">
+        <v>2.2114303886724355E-2</v>
+      </c>
+      <c r="O67" s="7">
+        <v>2.2031169453801125E-2</v>
+      </c>
+      <c r="P67" s="7">
+        <v>0.10777131519470327</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>9.1224442888787061E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>40816</v>
       </c>
@@ -2029,8 +4073,38 @@
       <c r="G68" s="5">
         <v>1.4988487901993064E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="7">
+        <v>8.9808458939696467E-2</v>
+      </c>
+      <c r="J68" s="7">
+        <v>0.1021263496736587</v>
+      </c>
+      <c r="K68" s="7">
+        <v>5.4496278130626588E-2</v>
+      </c>
+      <c r="L68" s="7">
+        <v>0.21393956804731357</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0.18901688305849942</v>
+      </c>
+      <c r="N68" s="7">
+        <v>2.3572695635297604E-2</v>
+      </c>
+      <c r="O68" s="7">
+        <v>2.2008690214582301E-2</v>
+      </c>
+      <c r="P68" s="7">
+        <v>0.11454433822930209</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>8.5533193249331854E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>40847</v>
       </c>
@@ -2052,8 +4126,38 @@
       <c r="G69" s="5">
         <v>4.2269387621705901E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="7">
+        <v>9.4761085157700126E-2</v>
+      </c>
+      <c r="J69" s="7">
+        <v>8.8117969334119847E-2</v>
+      </c>
+      <c r="K69" s="7">
+        <v>5.5075273056278316E-2</v>
+      </c>
+      <c r="L69" s="7">
+        <v>0.20416755978296638</v>
+      </c>
+      <c r="M69" s="7">
+        <v>0.18170026809262527</v>
+      </c>
+      <c r="N69" s="7">
+        <v>2.3092418170811785E-2</v>
+      </c>
+      <c r="O69" s="7">
+        <v>2.1531998854103829E-2</v>
+      </c>
+      <c r="P69" s="7">
+        <v>0.10969372305715763</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>8.8981291115233827E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>40877</v>
       </c>
@@ -2075,8 +4179,38 @@
       <c r="G70" s="5">
         <v>3.0661761667812894E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="7">
+        <v>9.4861952047720452E-2</v>
+      </c>
+      <c r="J70" s="7">
+        <v>8.950188813942625E-2</v>
+      </c>
+      <c r="K70" s="7">
+        <v>5.4986816951031976E-2</v>
+      </c>
+      <c r="L70" s="7">
+        <v>0.205625478209433</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0.1850160325831243</v>
+      </c>
+      <c r="N70" s="7">
+        <v>2.3242306440721408E-2</v>
+      </c>
+      <c r="O70" s="7">
+        <v>2.2002672156054618E-2</v>
+      </c>
+      <c r="P70" s="7">
+        <v>0.111174298745082</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>9.1898797576278807E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>40908</v>
       </c>
@@ -2098,8 +4232,38 @@
       <c r="G71" s="5">
         <v>-1.1271768762021774E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="7">
+        <v>9.5937556306839242E-2</v>
+      </c>
+      <c r="J71" s="7">
+        <v>9.3418883870831734E-2</v>
+      </c>
+      <c r="K71" s="7">
+        <v>5.2708258197901224E-2</v>
+      </c>
+      <c r="L71" s="7">
+        <v>0.22464169688972868</v>
+      </c>
+      <c r="M71" s="7">
+        <v>0.20196229967650792</v>
+      </c>
+      <c r="N71" s="7">
+        <v>2.4446997988101377E-2</v>
+      </c>
+      <c r="O71" s="7">
+        <v>2.7278561412147344E-2</v>
+      </c>
+      <c r="P71" s="7">
+        <v>0.12120235996522274</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>7.2379374280619954E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>40939</v>
       </c>
@@ -2121,8 +4285,38 @@
       <c r="G72" s="5">
         <v>4.1973105351297856E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="7">
+        <v>9.5991344032263323E-2</v>
+      </c>
+      <c r="J72" s="7">
+        <v>8.2380223757325274E-2</v>
+      </c>
+      <c r="K72" s="7">
+        <v>5.0996937717419429E-2</v>
+      </c>
+      <c r="L72" s="7">
+        <v>0.20825257817470572</v>
+      </c>
+      <c r="M72" s="7">
+        <v>0.19039183940029528</v>
+      </c>
+      <c r="N72" s="7">
+        <v>2.2731437996264738E-2</v>
+      </c>
+      <c r="O72" s="7">
+        <v>2.5559732286697862E-2</v>
+      </c>
+      <c r="P72" s="7">
+        <v>0.11345866994364653</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>7.2623075795388611E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>40968</v>
       </c>
@@ -2144,8 +4338,38 @@
       <c r="G73" s="5">
         <v>4.5667827432440536E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="7">
+        <v>9.5288475478817997E-2</v>
+      </c>
+      <c r="J73" s="7">
+        <v>8.3320098753744118E-2</v>
+      </c>
+      <c r="K73" s="7">
+        <v>5.0404886747162772E-2</v>
+      </c>
+      <c r="L73" s="7">
+        <v>0.20249790431650935</v>
+      </c>
+      <c r="M73" s="7">
+        <v>0.1832810114441808</v>
+      </c>
+      <c r="N73" s="7">
+        <v>2.1923964234606949E-2</v>
+      </c>
+      <c r="O73" s="7">
+        <v>2.4500774081473255E-2</v>
+      </c>
+      <c r="P73" s="7">
+        <v>0.11003826950901821</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>9.0635420242464182E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>40999</v>
       </c>
@@ -2167,8 +4391,38 @@
       <c r="G74" s="5">
         <v>3.4929089401874426E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="7">
+        <v>9.6679670390875633E-2</v>
+      </c>
+      <c r="J74" s="7">
+        <v>8.4664455871049663E-2</v>
+      </c>
+      <c r="K74" s="7">
+        <v>5.1027074502669495E-2</v>
+      </c>
+      <c r="L74" s="7">
+        <v>0.20363215395576176</v>
+      </c>
+      <c r="M74" s="7">
+        <v>0.19161175356184451</v>
+      </c>
+      <c r="N74" s="7">
+        <v>2.2791513503585912E-2</v>
+      </c>
+      <c r="O74" s="7">
+        <v>2.6759458409241491E-2</v>
+      </c>
+      <c r="P74" s="7">
+        <v>0.11350930530371499</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>8.3553097023951195E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>41029</v>
       </c>
@@ -2190,8 +4444,38 @@
       <c r="G75" s="5">
         <v>3.1170606734768784E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="7">
+        <v>9.6959250080179638E-2</v>
+      </c>
+      <c r="J75" s="7">
+        <v>8.3709731801246703E-2</v>
+      </c>
+      <c r="K75" s="7">
+        <v>5.3846238058353736E-2</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0.20236006943951218</v>
+      </c>
+      <c r="M75" s="7">
+        <v>0.19295363744112318</v>
+      </c>
+      <c r="N75" s="7">
+        <v>2.3333096663897254E-2</v>
+      </c>
+      <c r="O75" s="7">
+        <v>2.6684515276904679E-2</v>
+      </c>
+      <c r="P75" s="7">
+        <v>0.11587488662319301</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>8.1982618598716153E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>41060</v>
       </c>
@@ -2213,8 +4497,38 @@
       <c r="G76" s="5">
         <v>2.455656062599694E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="7">
+        <v>9.393585157456219E-2</v>
+      </c>
+      <c r="J76" s="7">
+        <v>8.7690142610139396E-2</v>
+      </c>
+      <c r="K76" s="7">
+        <v>5.3343390643743605E-2</v>
+      </c>
+      <c r="L76" s="7">
+        <v>0.20698376475910635</v>
+      </c>
+      <c r="M76" s="7">
+        <v>0.19432749555539527</v>
+      </c>
+      <c r="N76" s="7">
+        <v>2.3902849996741398E-2</v>
+      </c>
+      <c r="O76" s="7">
+        <v>2.6866153148840301E-2</v>
+      </c>
+      <c r="P76" s="7">
+        <v>0.11804397465461063</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>7.8863975231175915E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>41090</v>
       </c>
@@ -2236,8 +4550,38 @@
       <c r="G77" s="5">
         <v>2.7735945142229292E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="7">
+        <v>9.4678720935121363E-2</v>
+      </c>
+      <c r="J77" s="7">
+        <v>8.613226566816036E-2</v>
+      </c>
+      <c r="K77" s="7">
+        <v>5.2586089954512839E-2</v>
+      </c>
+      <c r="L77" s="7">
+        <v>0.20772601289500711</v>
+      </c>
+      <c r="M77" s="7">
+        <v>0.1914201105727947</v>
+      </c>
+      <c r="N77" s="7">
+        <v>2.5001996329719278E-2</v>
+      </c>
+      <c r="O77" s="7">
+        <v>2.6685816799173163E-2</v>
+      </c>
+      <c r="P77" s="7">
+        <v>0.11505641905747643</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>8.1228892942385597E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>41121</v>
       </c>
@@ -2259,8 +4603,38 @@
       <c r="G78" s="5">
         <v>2.2934820823688532E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="7">
+        <v>9.3711220002257845E-2</v>
+      </c>
+      <c r="J78" s="7">
+        <v>8.7262510351538328E-2</v>
+      </c>
+      <c r="K78" s="7">
+        <v>5.280321426576165E-2</v>
+      </c>
+      <c r="L78" s="7">
+        <v>0.20677020732270199</v>
+      </c>
+      <c r="M78" s="7">
+        <v>0.1909817443424485</v>
+      </c>
+      <c r="N78" s="7">
+        <v>2.5979947613721226E-2</v>
+      </c>
+      <c r="O78" s="7">
+        <v>2.7303598221322976E-2</v>
+      </c>
+      <c r="P78" s="7">
+        <v>0.11499210886295871</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>8.4054836136799621E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>41152</v>
       </c>
@@ -2282,8 +4656,38 @@
       <c r="G79" s="5">
         <v>-6.0609629240422516E-4</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="7">
+        <v>9.6402637641956029E-2</v>
+      </c>
+      <c r="J79" s="7">
+        <v>8.4576702335221979E-2</v>
+      </c>
+      <c r="K79" s="7">
+        <v>5.3538431231080499E-2</v>
+      </c>
+      <c r="L79" s="7">
+        <v>0.21593424804345557</v>
+      </c>
+      <c r="M79" s="7">
+        <v>0.19183396635197814</v>
+      </c>
+      <c r="N79" s="7">
+        <v>2.604523856882197E-2</v>
+      </c>
+      <c r="O79" s="7">
+        <v>2.7018562679170119E-2</v>
+      </c>
+      <c r="P79" s="7">
+        <v>0.1179143121494956</v>
+      </c>
+      <c r="Q79" s="7">
+        <v>9.396660813914319E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>41182</v>
       </c>
@@ -2305,8 +4709,38 @@
       <c r="G80" s="5">
         <v>5.3040741739751179E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="7">
+        <v>9.4684602409703486E-2</v>
+      </c>
+      <c r="J80" s="7">
+        <v>8.1220408057641386E-2</v>
+      </c>
+      <c r="K80" s="7">
+        <v>5.2946833309175358E-2</v>
+      </c>
+      <c r="L80" s="7">
+        <v>0.21366308000085948</v>
+      </c>
+      <c r="M80" s="7">
+        <v>0.19407687206005972</v>
+      </c>
+      <c r="N80" s="7">
+        <v>2.5818757537806325E-2</v>
+      </c>
+      <c r="O80" s="7">
+        <v>2.7868846328520904E-2</v>
+      </c>
+      <c r="P80" s="7">
+        <v>0.11903834369870731</v>
+      </c>
+      <c r="Q80" s="7">
+        <v>9.4090279323340076E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>41213</v>
       </c>
@@ -2328,8 +4762,38 @@
       <c r="G81" s="5">
         <v>-1.1627777869294193E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="7">
+        <v>9.7991418142352418E-2</v>
+      </c>
+      <c r="J81" s="7">
+        <v>8.2818670814240047E-2</v>
+      </c>
+      <c r="K81" s="7">
+        <v>5.2656128475889179E-2</v>
+      </c>
+      <c r="L81" s="7">
+        <v>0.22024178554885046</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0.19619551424862933</v>
+      </c>
+      <c r="N81" s="7">
+        <v>2.6123015734513953E-2</v>
+      </c>
+      <c r="O81" s="7">
+        <v>2.8344417529031177E-2</v>
+      </c>
+      <c r="P81" s="7">
+        <v>0.12015401495437396</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>9.3837670041201734E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>41243</v>
       </c>
@@ -2351,8 +4815,38 @@
       <c r="G82" s="5">
         <v>-1.6009804578379493E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="7">
+        <v>9.8690319581254585E-2</v>
+      </c>
+      <c r="J82" s="7">
+        <v>8.4367007293947791E-2</v>
+      </c>
+      <c r="K82" s="7">
+        <v>5.3090510553577511E-2</v>
+      </c>
+      <c r="L82" s="7">
+        <v>0.21921979653741722</v>
+      </c>
+      <c r="M82" s="7">
+        <v>0.19840723739637481</v>
+      </c>
+      <c r="N82" s="7">
+        <v>2.6261068102943021E-2</v>
+      </c>
+      <c r="O82" s="7">
+        <v>2.7592268273509531E-2</v>
+      </c>
+      <c r="P82" s="7">
+        <v>0.11866955286400757</v>
+      </c>
+      <c r="Q82" s="7">
+        <v>9.5696339152174986E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>41274</v>
       </c>
@@ -2374,8 +4868,38 @@
       <c r="G83" s="5">
         <v>-3.0703741587967816E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="7">
+        <v>8.8242997841951429E-2</v>
+      </c>
+      <c r="J83" s="7">
+        <v>8.5124255014784253E-2</v>
+      </c>
+      <c r="K83" s="7">
+        <v>5.5063231846160868E-2</v>
+      </c>
+      <c r="L83" s="7">
+        <v>0.22221193264027425</v>
+      </c>
+      <c r="M83" s="7">
+        <v>0.2073118662737102</v>
+      </c>
+      <c r="N83" s="7">
+        <v>2.7197594554161202E-2</v>
+      </c>
+      <c r="O83" s="7">
+        <v>2.7211401388393078E-2</v>
+      </c>
+      <c r="P83" s="7">
+        <v>0.11851676641876047</v>
+      </c>
+      <c r="Q83" s="7">
+        <v>0.10301631798850679</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>41305</v>
       </c>
@@ -2397,8 +4921,38 @@
       <c r="G84" s="5">
         <v>2.6740589637913315E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="7">
+        <v>8.2449958119852867E-2</v>
+      </c>
+      <c r="J84" s="7">
+        <v>7.432939489253719E-2</v>
+      </c>
+      <c r="K84" s="7">
+        <v>5.1956306767147881E-2</v>
+      </c>
+      <c r="L84" s="7">
+        <v>0.21175308227084036</v>
+      </c>
+      <c r="M84" s="7">
+        <v>0.19028515641250443</v>
+      </c>
+      <c r="N84" s="7">
+        <v>2.4868747426858576E-2</v>
+      </c>
+      <c r="O84" s="7">
+        <v>2.4820392991851754E-2</v>
+      </c>
+      <c r="P84" s="7">
+        <v>0.10879113511242892</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>0.10559593839508943</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>41333</v>
       </c>
@@ -2420,8 +4974,38 @@
       <c r="G85" s="5">
         <v>2.3746721073587159E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="7">
+        <v>8.3195255361359272E-2</v>
+      </c>
+      <c r="J85" s="7">
+        <v>7.4615761078965823E-2</v>
+      </c>
+      <c r="K85" s="7">
+        <v>5.2564996917418783E-2</v>
+      </c>
+      <c r="L85" s="7">
+        <v>0.2128904111594562</v>
+      </c>
+      <c r="M85" s="7">
+        <v>0.18656299085148856</v>
+      </c>
+      <c r="N85" s="7">
+        <v>2.4932757296528638E-2</v>
+      </c>
+      <c r="O85" s="7">
+        <v>2.5191857076073944E-2</v>
+      </c>
+      <c r="P85" s="7">
+        <v>0.10820800349719689</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>0.10930509507293232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>41364</v>
       </c>
@@ -2443,8 +5027,38 @@
       <c r="G86" s="5">
         <v>3.054828959420066E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="7">
+        <v>8.3529694994250003E-2</v>
+      </c>
+      <c r="J86" s="7">
+        <v>7.5477480132715449E-2</v>
+      </c>
+      <c r="K86" s="7">
+        <v>5.3310251156877264E-2</v>
+      </c>
+      <c r="L86" s="7">
+        <v>0.21473318732119759</v>
+      </c>
+      <c r="M86" s="7">
+        <v>0.18655139950310087</v>
+      </c>
+      <c r="N86" s="7">
+        <v>2.4616914069176682E-2</v>
+      </c>
+      <c r="O86" s="7">
+        <v>2.512436194232015E-2</v>
+      </c>
+      <c r="P86" s="7">
+        <v>0.11241475309179402</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>0.10091335891964669</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>41394</v>
       </c>
@@ -2466,8 +5080,38 @@
       <c r="G87" s="5">
         <v>2.1792189219865019E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="7">
+        <v>8.3077453281085012E-2</v>
+      </c>
+      <c r="J87" s="7">
+        <v>7.4497252190822816E-2</v>
+      </c>
+      <c r="K87" s="7">
+        <v>5.2206970755302236E-2</v>
+      </c>
+      <c r="L87" s="7">
+        <v>0.21668748486956771</v>
+      </c>
+      <c r="M87" s="7">
+        <v>0.18824533820814826</v>
+      </c>
+      <c r="N87" s="7">
+        <v>2.4470296423607422E-2</v>
+      </c>
+      <c r="O87" s="7">
+        <v>2.5084743737972738E-2</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0.11239240979745872</v>
+      </c>
+      <c r="Q87" s="7">
+        <v>0.10203618398007572</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>41425</v>
       </c>
@@ -2489,8 +5133,38 @@
       <c r="G88" s="5">
         <v>3.8825427406227658E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="7">
+        <v>8.7925315537553547E-2</v>
+      </c>
+      <c r="J88" s="7">
+        <v>6.9269613270408217E-2</v>
+      </c>
+      <c r="K88" s="7">
+        <v>5.2821640413492854E-2</v>
+      </c>
+      <c r="L88" s="7">
+        <v>0.21690469058667466</v>
+      </c>
+      <c r="M88" s="7">
+        <v>0.1824136326839601</v>
+      </c>
+      <c r="N88" s="7">
+        <v>2.4721632241407977E-2</v>
+      </c>
+      <c r="O88" s="7">
+        <v>2.4633573153856243E-2</v>
+      </c>
+      <c r="P88" s="7">
+        <v>0.11116139269395604</v>
+      </c>
+      <c r="Q88" s="7">
+        <v>9.9772825354846217E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>41455</v>
       </c>
@@ -2512,8 +5186,38 @@
       <c r="G89" s="5">
         <v>1.6051679027624055E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="7">
+        <v>9.1816550427508109E-2</v>
+      </c>
+      <c r="J89" s="7">
+        <v>6.9780675442007389E-2</v>
+      </c>
+      <c r="K89" s="7">
+        <v>5.2825305321595968E-2</v>
+      </c>
+      <c r="L89" s="7">
+        <v>0.21624884222815524</v>
+      </c>
+      <c r="M89" s="7">
+        <v>0.1909476149472015</v>
+      </c>
+      <c r="N89" s="7">
+        <v>2.6318517726535862E-2</v>
+      </c>
+      <c r="O89" s="7">
+        <v>2.5113141507842249E-2</v>
+      </c>
+      <c r="P89" s="7">
+        <v>0.11764653879088315</v>
+      </c>
+      <c r="Q89" s="7">
+        <v>9.8513246897380571E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>41486</v>
       </c>
@@ -2535,8 +5239,38 @@
       <c r="G90" s="5">
         <v>1.4096344652579593E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="7">
+        <v>8.8113838996846924E-2</v>
+      </c>
+      <c r="J90" s="7">
+        <v>7.1217737642844489E-2</v>
+      </c>
+      <c r="K90" s="7">
+        <v>5.9131462864475105E-2</v>
+      </c>
+      <c r="L90" s="7">
+        <v>0.22113202400097834</v>
+      </c>
+      <c r="M90" s="7">
+        <v>0.18724394756564861</v>
+      </c>
+      <c r="N90" s="7">
+        <v>2.5807030913115196E-2</v>
+      </c>
+      <c r="O90" s="7">
+        <v>2.4600595228901932E-2</v>
+      </c>
+      <c r="P90" s="7">
+        <v>0.11409506270359239</v>
+      </c>
+      <c r="Q90" s="7">
+        <v>9.9547750286208644E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>41517</v>
       </c>
@@ -2558,8 +5292,38 @@
       <c r="G91" s="5">
         <v>3.7046381102567583E-3</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="7">
+        <v>9.1210364643510733E-2</v>
+      </c>
+      <c r="J91" s="7">
+        <v>7.127608873158317E-2</v>
+      </c>
+      <c r="K91" s="7">
+        <v>5.8867326728607165E-2</v>
+      </c>
+      <c r="L91" s="7">
+        <v>0.22166340834858142</v>
+      </c>
+      <c r="M91" s="7">
+        <v>0.1905409738968494</v>
+      </c>
+      <c r="N91" s="7">
+        <v>2.6257026732759231E-2</v>
+      </c>
+      <c r="O91" s="7">
+        <v>2.3847465500946682E-2</v>
+      </c>
+      <c r="P91" s="7">
+        <v>0.11308235530346486</v>
+      </c>
+      <c r="Q91" s="7">
+        <v>0.10035000838304825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>41547</v>
       </c>
@@ -2581,8 +5345,38 @@
       <c r="G92" s="5">
         <v>8.9981126758220918E-3</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="7">
+        <v>9.1819700213387492E-2</v>
+      </c>
+      <c r="J92" s="7">
+        <v>7.0602879677236316E-2</v>
+      </c>
+      <c r="K92" s="7">
+        <v>5.8280950884642455E-2</v>
+      </c>
+      <c r="L92" s="7">
+        <v>0.21750058624186241</v>
+      </c>
+      <c r="M92" s="7">
+        <v>0.19237447143322811</v>
+      </c>
+      <c r="N92" s="7">
+        <v>2.8778153780926692E-2</v>
+      </c>
+      <c r="O92" s="7">
+        <v>2.4249146902302839E-2</v>
+      </c>
+      <c r="P92" s="7">
+        <v>0.11290566474156956</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>9.8033772320411341E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>41578</v>
       </c>
@@ -2604,8 +5398,38 @@
       <c r="G93" s="5">
         <v>1.8861507097706339E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="7">
+        <v>8.6264920651590596E-2</v>
+      </c>
+      <c r="J93" s="7">
+        <v>7.0194811678984337E-2</v>
+      </c>
+      <c r="K93" s="7">
+        <v>5.7826398728669438E-2</v>
+      </c>
+      <c r="L93" s="7">
+        <v>0.21865358032388729</v>
+      </c>
+      <c r="M93" s="7">
+        <v>0.18813029115173388</v>
+      </c>
+      <c r="N93" s="7">
+        <v>2.8796712375818566E-2</v>
+      </c>
+      <c r="O93" s="7">
+        <v>2.4359185317723776E-2</v>
+      </c>
+      <c r="P93" s="7">
+        <v>0.10864983120331793</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>0.1013305553191594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>41608</v>
       </c>
@@ -2627,8 +5451,38 @@
       <c r="G94" s="5">
         <v>4.7816035410331768E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="7">
+        <v>8.7098157418968244E-2</v>
+      </c>
+      <c r="J94" s="7">
+        <v>7.2674362970775758E-2</v>
+      </c>
+      <c r="K94" s="7">
+        <v>6.0060141935551432E-2</v>
+      </c>
+      <c r="L94" s="7">
+        <v>0.22258254528759414</v>
+      </c>
+      <c r="M94" s="7">
+        <v>0.18551307907729536</v>
+      </c>
+      <c r="N94" s="7">
+        <v>2.8984065096849823E-2</v>
+      </c>
+      <c r="O94" s="7">
+        <v>2.4248856468134485E-2</v>
+      </c>
+      <c r="P94" s="7">
+        <v>0.10804407147516869</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>8.8786326940453103E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>41639</v>
       </c>
@@ -2650,8 +5504,38 @@
       <c r="G95" s="5">
         <v>3.6697465326278475E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="7">
+        <v>7.9896917282963581E-2</v>
+      </c>
+      <c r="J95" s="7">
+        <v>9.1802248108702619E-2</v>
+      </c>
+      <c r="K95" s="7">
+        <v>5.9328847203307528E-2</v>
+      </c>
+      <c r="L95" s="7">
+        <v>0.20341589178253464</v>
+      </c>
+      <c r="M95" s="7">
+        <v>0.19900421651271857</v>
+      </c>
+      <c r="N95" s="7">
+        <v>3.2281370814668822E-2</v>
+      </c>
+      <c r="O95" s="7">
+        <v>2.7040200339390794E-2</v>
+      </c>
+      <c r="P95" s="7">
+        <v>0.12021784867344942</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>7.6631545512553703E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>41670</v>
       </c>
@@ -2673,8 +5557,38 @@
       <c r="G96" s="5">
         <v>-9.6119799493661617E-3</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="7">
+        <v>9.2079385291635035E-2</v>
+      </c>
+      <c r="J96" s="7">
+        <v>0.10898413526788361</v>
+      </c>
+      <c r="K96" s="7">
+        <v>6.1854433315574421E-2</v>
+      </c>
+      <c r="L96" s="7">
+        <v>0.20505786085838595</v>
+      </c>
+      <c r="M96" s="7">
+        <v>0.19873168097230842</v>
+      </c>
+      <c r="N96" s="7">
+        <v>3.2375726363044519E-2</v>
+      </c>
+      <c r="O96" s="7">
+        <v>2.6481445844568737E-2</v>
+      </c>
+      <c r="P96" s="7">
+        <v>0.12048505586137248</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>8.2505356299192756E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>41698</v>
       </c>
@@ -2696,8 +5610,38 @@
       <c r="G97" s="5">
         <v>3.7590540990599379E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="7">
+        <v>8.7105696778556368E-2</v>
+      </c>
+      <c r="J97" s="7">
+        <v>0.10121104558049547</v>
+      </c>
+      <c r="K97" s="7">
+        <v>6.0669142581030275E-2</v>
+      </c>
+      <c r="L97" s="7">
+        <v>0.20678169682936451</v>
+      </c>
+      <c r="M97" s="7">
+        <v>0.1784636892670225</v>
+      </c>
+      <c r="N97" s="7">
+        <v>2.8891140486389976E-2</v>
+      </c>
+      <c r="O97" s="7">
+        <v>2.3499248059375321E-2</v>
+      </c>
+      <c r="P97" s="7">
+        <v>0.10899383038570486</v>
+      </c>
+      <c r="Q97" s="7">
+        <v>8.6667532784498555E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>41729</v>
       </c>
@@ -2719,8 +5663,38 @@
       <c r="G98" s="5">
         <v>3.738961743647394E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="7">
+        <v>8.5863859521486216E-2</v>
+      </c>
+      <c r="J98" s="7">
+        <v>0.10147992287976618</v>
+      </c>
+      <c r="K98" s="7">
+        <v>5.5308393949209694E-2</v>
+      </c>
+      <c r="L98" s="7">
+        <v>0.19928905345131484</v>
+      </c>
+      <c r="M98" s="7">
+        <v>0.17671577170401434</v>
+      </c>
+      <c r="N98" s="7">
+        <v>3.1466070132091864E-2</v>
+      </c>
+      <c r="O98" s="7">
+        <v>2.3998209439109498E-2</v>
+      </c>
+      <c r="P98" s="7">
+        <v>0.1176382264917387</v>
+      </c>
+      <c r="Q98" s="7">
+        <v>9.0430387033306261E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>41759</v>
       </c>
@@ -2742,8 +5716,38 @@
       <c r="G99" s="5">
         <v>3.1878653223597044E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="7">
+        <v>8.6782738166433795E-2</v>
+      </c>
+      <c r="J99" s="7">
+        <v>0.10183030206021272</v>
+      </c>
+      <c r="K99" s="7">
+        <v>5.6328491045936818E-2</v>
+      </c>
+      <c r="L99" s="7">
+        <v>0.20431022747478025</v>
+      </c>
+      <c r="M99" s="7">
+        <v>0.17703758740510717</v>
+      </c>
+      <c r="N99" s="7">
+        <v>3.2667456175585412E-2</v>
+      </c>
+      <c r="O99" s="7">
+        <v>2.5087782702828909E-2</v>
+      </c>
+      <c r="P99" s="7">
+        <v>0.11959586291220529</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>8.2669660657122987E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>41790</v>
       </c>
@@ -2765,8 +5769,38 @@
       <c r="G100" s="5">
         <v>2.5443490621821545E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="7">
+        <v>8.8470326114421807E-2</v>
+      </c>
+      <c r="J100" s="7">
+        <v>0.10694469353385699</v>
+      </c>
+      <c r="K100" s="7">
+        <v>5.8033466356212919E-2</v>
+      </c>
+      <c r="L100" s="7">
+        <v>0.20718720460536369</v>
+      </c>
+      <c r="M100" s="7">
+        <v>0.17358722352943737</v>
+      </c>
+      <c r="N100" s="7">
+        <v>3.2349557354572719E-2</v>
+      </c>
+      <c r="O100" s="7">
+        <v>2.4831504948419833E-2</v>
+      </c>
+      <c r="P100" s="7">
+        <v>0.11631538914215295</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>8.4902723247179152E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>41820</v>
       </c>
@@ -2788,8 +5822,38 @@
       <c r="G101" s="5">
         <v>2.9539988677874069E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="7">
+        <v>8.8150889784943412E-2</v>
+      </c>
+      <c r="J101" s="7">
+        <v>0.10224617760008373</v>
+      </c>
+      <c r="K101" s="7">
+        <v>5.7048891479331919E-2</v>
+      </c>
+      <c r="L101" s="7">
+        <v>0.20576869201075293</v>
+      </c>
+      <c r="M101" s="7">
+        <v>0.17431608802369686</v>
+      </c>
+      <c r="N101" s="7">
+        <v>3.3289643366191092E-2</v>
+      </c>
+      <c r="O101" s="7">
+        <v>2.418550663692148E-2</v>
+      </c>
+      <c r="P101" s="7">
+        <v>0.11571152236421829</v>
+      </c>
+      <c r="Q101" s="7">
+        <v>9.0467485649518037E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>41851</v>
       </c>
@@ -2811,8 +5875,38 @@
       <c r="G102" s="5">
         <v>1.3621880344068533E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="7">
+        <v>8.7233200125823196E-2</v>
+      </c>
+      <c r="J102" s="7">
+        <v>0.10493638659541518</v>
+      </c>
+      <c r="K102" s="7">
+        <v>6.0205080123966567E-2</v>
+      </c>
+      <c r="L102" s="7">
+        <v>0.20381686128426937</v>
+      </c>
+      <c r="M102" s="7">
+        <v>0.17502011925371286</v>
+      </c>
+      <c r="N102" s="7">
+        <v>3.3239008064772091E-2</v>
+      </c>
+      <c r="O102" s="7">
+        <v>2.4671649733822767E-2</v>
+      </c>
+      <c r="P102" s="7">
+        <v>0.11726422738766863</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>9.0355258068267177E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>41882</v>
       </c>
@@ -2834,8 +5928,38 @@
       <c r="G103" s="5">
         <v>4.546773901316868E-3</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" s="7">
+        <v>9.1020284230064266E-2</v>
+      </c>
+      <c r="J103" s="7">
+        <v>0.11303585035959784</v>
+      </c>
+      <c r="K103" s="7">
+        <v>6.1740414038800047E-2</v>
+      </c>
+      <c r="L103" s="7">
+        <v>0.20406027045643543</v>
+      </c>
+      <c r="M103" s="7">
+        <v>0.17375054834705003</v>
+      </c>
+      <c r="N103" s="7">
+        <v>3.263882948963865E-2</v>
+      </c>
+      <c r="O103" s="7">
+        <v>2.5104082641016667E-2</v>
+      </c>
+      <c r="P103" s="7">
+        <v>0.11491892220738803</v>
+      </c>
+      <c r="Q103" s="7">
+        <v>8.8360352998096456E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>41912</v>
       </c>
@@ -2857,8 +5981,38 @@
       <c r="G104" s="5">
         <v>7.3923258803499379E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I104" s="7">
+        <v>9.1295160406325335E-2</v>
+      </c>
+      <c r="J104" s="7">
+        <v>0.11346844563949512</v>
+      </c>
+      <c r="K104" s="7">
+        <v>6.1764327908774147E-2</v>
+      </c>
+      <c r="L104" s="7">
+        <v>0.2052408641156549</v>
+      </c>
+      <c r="M104" s="7">
+        <v>0.17413107716473278</v>
+      </c>
+      <c r="N104" s="7">
+        <v>3.3566097890384609E-2</v>
+      </c>
+      <c r="O104" s="7">
+        <v>2.4759887418408632E-2</v>
+      </c>
+      <c r="P104" s="7">
+        <v>0.11450461750128679</v>
+      </c>
+      <c r="Q104" s="7">
+        <v>8.6724078358988946E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>41943</v>
       </c>
@@ -2880,8 +6034,38 @@
       <c r="G105" s="5">
         <v>9.1351051364904027E-4</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" s="7">
+        <v>9.2014204381562437E-2</v>
+      </c>
+      <c r="J105" s="7">
+        <v>0.11785040245008845</v>
+      </c>
+      <c r="K105" s="7">
+        <v>6.2404154247514478E-2</v>
+      </c>
+      <c r="L105" s="7">
+        <v>0.20745407050703263</v>
+      </c>
+      <c r="M105" s="7">
+        <v>0.16870309232141917</v>
+      </c>
+      <c r="N105" s="7">
+        <v>3.3284018148815236E-2</v>
+      </c>
+      <c r="O105" s="7">
+        <v>2.4824124674169425E-2</v>
+      </c>
+      <c r="P105" s="7">
+        <v>0.11248554057787695</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>8.932992818321378E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>41973</v>
       </c>
@@ -2903,8 +6087,38 @@
       <c r="G106" s="5">
         <v>9.4393541712661823E-3</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I106" s="7">
+        <v>9.1774990826862746E-2</v>
+      </c>
+      <c r="J106" s="7">
+        <v>0.1181210894194816</v>
+      </c>
+      <c r="K106" s="7">
+        <v>6.3741469669180553E-2</v>
+      </c>
+      <c r="L106" s="7">
+        <v>0.20706097019012409</v>
+      </c>
+      <c r="M106" s="7">
+        <v>0.16703136489453108</v>
+      </c>
+      <c r="N106" s="7">
+        <v>3.3388890803810807E-2</v>
+      </c>
+      <c r="O106" s="7">
+        <v>2.4899164858019261E-2</v>
+      </c>
+      <c r="P106" s="7">
+        <v>0.11355826452774573</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>8.8384330543635495E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>42004</v>
       </c>
@@ -2926,8 +6140,38 @@
       <c r="G107" s="5">
         <v>-2.6894984603799584E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" s="7">
+        <v>9.1474392005036292E-2</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0.12028255195495502</v>
+      </c>
+      <c r="K107" s="7">
+        <v>5.8852259014431536E-2</v>
+      </c>
+      <c r="L107" s="7">
+        <v>0.21019585416799488</v>
+      </c>
+      <c r="M107" s="7">
+        <v>0.18173756333659127</v>
+      </c>
+      <c r="N107" s="7">
+        <v>3.9038877501757163E-2</v>
+      </c>
+      <c r="O107" s="7">
+        <v>2.5239462756842086E-2</v>
+      </c>
+      <c r="P107" s="7">
+        <v>0.12274821461988432</v>
+      </c>
+      <c r="Q107" s="7">
+        <v>7.9660985504765761E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>42035</v>
       </c>
@@ -2949,8 +6193,38 @@
       <c r="G108" s="5">
         <v>-3.1958355754943524E-3</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="7">
+        <v>8.7051452854384606E-2</v>
+      </c>
+      <c r="J108" s="7">
+        <v>0.1165736742504721</v>
+      </c>
+      <c r="K108" s="7">
+        <v>6.0128494755213188E-2</v>
+      </c>
+      <c r="L108" s="7">
+        <v>0.21234790559421513</v>
+      </c>
+      <c r="M108" s="7">
+        <v>0.17974407431215847</v>
+      </c>
+      <c r="N108" s="7">
+        <v>3.8468401564716787E-2</v>
+      </c>
+      <c r="O108" s="7">
+        <v>2.4986183870202641E-2</v>
+      </c>
+      <c r="P108" s="7">
+        <v>0.11912209356426751</v>
+      </c>
+      <c r="Q108" s="7">
+        <v>7.5675733643804935E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>42063</v>
       </c>
@@ -2972,8 +6246,38 @@
       <c r="G109" s="5">
         <v>-2.4781475817626263E-3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" s="7">
+        <v>8.8000045118734369E-2</v>
+      </c>
+      <c r="J109" s="7">
+        <v>0.11535121102153549</v>
+      </c>
+      <c r="K109" s="7">
+        <v>6.56829783602043E-2</v>
+      </c>
+      <c r="L109" s="7">
+        <v>0.20754352374032728</v>
+      </c>
+      <c r="M109" s="7">
+        <v>0.1740741176546681</v>
+      </c>
+      <c r="N109" s="7">
+        <v>3.5625058322758293E-2</v>
+      </c>
+      <c r="O109" s="7">
+        <v>2.4619641623761269E-2</v>
+      </c>
+      <c r="P109" s="7">
+        <v>0.11096084963860173</v>
+      </c>
+      <c r="Q109" s="7">
+        <v>9.1708276516295748E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>42094</v>
       </c>
@@ -2995,8 +6299,38 @@
       <c r="G110" s="5">
         <v>-8.1461667548055026E-3</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" s="7">
+        <v>8.7146440372648321E-2</v>
+      </c>
+      <c r="J110" s="7">
+        <v>0.11486547511221218</v>
+      </c>
+      <c r="K110" s="7">
+        <v>6.6001637482390768E-2</v>
+      </c>
+      <c r="L110" s="7">
+        <v>0.20917375372371097</v>
+      </c>
+      <c r="M110" s="7">
+        <v>0.17607526032054438</v>
+      </c>
+      <c r="N110" s="7">
+        <v>3.7096086560752438E-2</v>
+      </c>
+      <c r="O110" s="7">
+        <v>2.5405537741197897E-2</v>
+      </c>
+      <c r="P110" s="7">
+        <v>0.10989464434058625</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>9.2834004601279316E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>42124</v>
       </c>
@@ -3018,8 +6352,38 @@
       <c r="G111" s="5">
         <v>5.2352833098240478E-3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" s="7">
+        <v>8.7438999739398948E-2</v>
+      </c>
+      <c r="J111" s="7">
+        <v>0.11522501751169328</v>
+      </c>
+      <c r="K111" s="7">
+        <v>6.4765859909151749E-2</v>
+      </c>
+      <c r="L111" s="7">
+        <v>0.20589189115236478</v>
+      </c>
+      <c r="M111" s="7">
+        <v>0.17043648437028822</v>
+      </c>
+      <c r="N111" s="7">
+        <v>3.5953954232114234E-2</v>
+      </c>
+      <c r="O111" s="7">
+        <v>2.4901673034917401E-2</v>
+      </c>
+      <c r="P111" s="7">
+        <v>0.10640170275819888</v>
+      </c>
+      <c r="Q111" s="7">
+        <v>9.5242892785595293E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>42155</v>
       </c>
@@ -3041,8 +6405,38 @@
       <c r="G112" s="5">
         <v>-6.522667263173951E-4</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I112" s="7">
+        <v>8.8831615508737458E-2</v>
+      </c>
+      <c r="J112" s="7">
+        <v>0.12135750183277662</v>
+      </c>
+      <c r="K112" s="7">
+        <v>6.5712539655571736E-2</v>
+      </c>
+      <c r="L112" s="7">
+        <v>0.20682433285498653</v>
+      </c>
+      <c r="M112" s="7">
+        <v>0.1651532894719023</v>
+      </c>
+      <c r="N112" s="7">
+        <v>3.6254158136588555E-2</v>
+      </c>
+      <c r="O112" s="7">
+        <v>2.5050026960379536E-2</v>
+      </c>
+      <c r="P112" s="7">
+        <v>0.10560190422233547</v>
+      </c>
+      <c r="Q112" s="7">
+        <v>9.4248415948131131E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>42185</v>
       </c>
@@ -3064,8 +6458,38 @@
       <c r="G113" s="5">
         <v>-3.0344813265693301E-3</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" s="7">
+        <v>8.8104995077654069E-2</v>
+      </c>
+      <c r="J113" s="7">
+        <v>0.12250983452668739</v>
+      </c>
+      <c r="K113" s="7">
+        <v>6.4752804491948507E-2</v>
+      </c>
+      <c r="L113" s="7">
+        <v>0.19947947117981035</v>
+      </c>
+      <c r="M113" s="7">
+        <v>0.17270007135510376</v>
+      </c>
+      <c r="N113" s="7">
+        <v>3.7349759648906113E-2</v>
+      </c>
+      <c r="O113" s="7">
+        <v>2.5845607769679466E-2</v>
+      </c>
+      <c r="P113" s="7">
+        <v>0.10662083497036383</v>
+      </c>
+      <c r="Q113" s="7">
+        <v>9.4136602199791322E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>42216</v>
       </c>
@@ -3087,8 +6511,38 @@
       <c r="G114" s="5">
         <v>-3.2740719823140226E-4</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" s="7">
+        <v>8.6755309748856341E-2</v>
+      </c>
+      <c r="J114" s="7">
+        <v>0.12415816960772751</v>
+      </c>
+      <c r="K114" s="7">
+        <v>6.4865594821264902E-2</v>
+      </c>
+      <c r="L114" s="7">
+        <v>0.20327684693205902</v>
+      </c>
+      <c r="M114" s="7">
+        <v>0.16805475873294501</v>
+      </c>
+      <c r="N114" s="7">
+        <v>3.730729224616592E-2</v>
+      </c>
+      <c r="O114" s="7">
+        <v>2.5010171985919712E-2</v>
+      </c>
+      <c r="P114" s="7">
+        <v>0.10637278124481685</v>
+      </c>
+      <c r="Q114" s="7">
+        <v>9.6741698012820093E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>42247</v>
       </c>
@@ -3110,8 +6564,38 @@
       <c r="G115" s="5">
         <v>-4.1141649482119433E-4</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" s="7">
+        <v>8.5211263725695027E-2</v>
+      </c>
+      <c r="J115" s="7">
+        <v>0.12529966700994807</v>
+      </c>
+      <c r="K115" s="7">
+        <v>6.71397509505475E-2</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0.20258377701401278</v>
+      </c>
+      <c r="M115" s="7">
+        <v>0.17250657167628763</v>
+      </c>
+      <c r="N115" s="7">
+        <v>3.734014122853048E-2</v>
+      </c>
+      <c r="O115" s="7">
+        <v>2.4512267650549951E-2</v>
+      </c>
+      <c r="P115" s="7">
+        <v>0.10496994805243737</v>
+      </c>
+      <c r="Q115" s="7">
+        <v>0.10018544321388684</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>42277</v>
       </c>
@@ -3133,8 +6617,38 @@
       <c r="G116" s="5">
         <v>-1.8416539636165578E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I116" s="7">
+        <v>8.4501122159928138E-2</v>
+      </c>
+      <c r="J116" s="7">
+        <v>0.12515975278500951</v>
+      </c>
+      <c r="K116" s="7">
+        <v>6.5842820532960658E-2</v>
+      </c>
+      <c r="L116" s="7">
+        <v>0.20475724334365908</v>
+      </c>
+      <c r="M116" s="7">
+        <v>0.1733406049795512</v>
+      </c>
+      <c r="N116" s="7">
+        <v>3.9166817768554976E-2</v>
+      </c>
+      <c r="O116" s="7">
+        <v>2.9711555372315866E-2</v>
+      </c>
+      <c r="P116" s="7">
+        <v>0.11487218028801909</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>9.5457580104222547E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>42308</v>
       </c>
@@ -3156,8 +6670,38 @@
       <c r="G117" s="5">
         <v>-3.2744858998545517E-3</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="7">
+        <v>8.7541045553424651E-2</v>
+      </c>
+      <c r="J117" s="7">
+        <v>0.12208761705275119</v>
+      </c>
+      <c r="K117" s="7">
+        <v>6.6346431843659501E-2</v>
+      </c>
+      <c r="L117" s="7">
+        <v>0.20169202969204433</v>
+      </c>
+      <c r="M117" s="7">
+        <v>0.1641945442351497</v>
+      </c>
+      <c r="N117" s="7">
+        <v>3.8472202873608446E-2</v>
+      </c>
+      <c r="O117" s="7">
+        <v>3.0051838101829736E-2</v>
+      </c>
+      <c r="P117" s="7">
+        <v>0.11010626212241539</v>
+      </c>
+      <c r="Q117" s="7">
+        <v>9.7427159772780325E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>42338</v>
       </c>
@@ -3179,8 +6723,38 @@
       <c r="G118" s="5">
         <v>-7.1325398233238928E-3</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="7">
+        <v>8.7914422375101955E-2</v>
+      </c>
+      <c r="J118" s="7">
+        <v>0.12311456703334636</v>
+      </c>
+      <c r="K118" s="7">
+        <v>6.6093935356198244E-2</v>
+      </c>
+      <c r="L118" s="7">
+        <v>0.2029170448788328</v>
+      </c>
+      <c r="M118" s="7">
+        <v>0.16227637809661111</v>
+      </c>
+      <c r="N118" s="7">
+        <v>3.8329666879853903E-2</v>
+      </c>
+      <c r="O118" s="7">
+        <v>2.9959105109674901E-2</v>
+      </c>
+      <c r="P118" s="7">
+        <v>0.11189599755941328</v>
+      </c>
+      <c r="Q118" s="7">
+        <v>9.9247270833371787E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>42369</v>
       </c>
@@ -3202,8 +6776,38 @@
       <c r="G119" s="5">
         <v>-3.067510436184414E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" s="7">
+        <v>8.7926456304215861E-2</v>
+      </c>
+      <c r="J119" s="7">
+        <v>0.12955855696343035</v>
+      </c>
+      <c r="K119" s="7">
+        <v>6.7430762102693748E-2</v>
+      </c>
+      <c r="L119" s="7">
+        <v>0.20198747971933992</v>
+      </c>
+      <c r="M119" s="7">
+        <v>0.17259139325733672</v>
+      </c>
+      <c r="N119" s="7">
+        <v>4.1450065091536176E-2</v>
+      </c>
+      <c r="O119" s="7">
+        <v>3.1550564824921482E-2</v>
+      </c>
+      <c r="P119" s="7">
+        <v>0.12629210206733255</v>
+      </c>
+      <c r="Q119" s="7">
+        <v>8.5447247511721849E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>42400</v>
       </c>
@@ -3225,8 +6829,38 @@
       <c r="G120" s="5">
         <v>-1.3484825089266584E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" s="7">
+        <v>8.1711235145368266E-2</v>
+      </c>
+      <c r="J120" s="7">
+        <v>0.12227939200008528</v>
+      </c>
+      <c r="K120" s="7">
+        <v>6.3219151336963125E-2</v>
+      </c>
+      <c r="L120" s="7">
+        <v>0.19806567196292532</v>
+      </c>
+      <c r="M120" s="7">
+        <v>0.1717936668128193</v>
+      </c>
+      <c r="N120" s="7">
+        <v>4.1880069084328266E-2</v>
+      </c>
+      <c r="O120" s="7">
+        <v>3.1428266736092995E-2</v>
+      </c>
+      <c r="P120" s="7">
+        <v>0.13051783665207151</v>
+      </c>
+      <c r="Q120" s="7">
+        <v>8.6457301833596956E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>42429</v>
       </c>
@@ -3248,8 +6882,38 @@
       <c r="G121" s="5">
         <v>-1.5281618079368215E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="7">
+        <v>8.254139030199624E-2</v>
+      </c>
+      <c r="J121" s="7">
+        <v>0.12201937869894498</v>
+      </c>
+      <c r="K121" s="7">
+        <v>5.9578008639511897E-2</v>
+      </c>
+      <c r="L121" s="7">
+        <v>0.19064740749763825</v>
+      </c>
+      <c r="M121" s="7">
+        <v>0.17223433157055512</v>
+      </c>
+      <c r="N121" s="7">
+        <v>4.2943921884153934E-2</v>
+      </c>
+      <c r="O121" s="7">
+        <v>3.1488457197249173E-2</v>
+      </c>
+      <c r="P121" s="7">
+        <v>0.1299910013076617</v>
+      </c>
+      <c r="Q121" s="7">
+        <v>9.9840324396156074E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>42460</v>
       </c>
@@ -3271,8 +6935,38 @@
       <c r="G122" s="5">
         <v>-7.6608112836031956E-3</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="7">
+        <v>8.302903469882153E-2</v>
+      </c>
+      <c r="J122" s="7">
+        <v>0.12612821289061651</v>
+      </c>
+      <c r="K122" s="7">
+        <v>5.9043874770380846E-2</v>
+      </c>
+      <c r="L122" s="7">
+        <v>0.18610532726605863</v>
+      </c>
+      <c r="M122" s="7">
+        <v>0.16953346897718599</v>
+      </c>
+      <c r="N122" s="7">
+        <v>4.0803481093038559E-2</v>
+      </c>
+      <c r="O122" s="7">
+        <v>3.0757181838800725E-2</v>
+      </c>
+      <c r="P122" s="7">
+        <v>0.12606938344268073</v>
+      </c>
+      <c r="Q122" s="7">
+        <v>0.1027324562105667</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>42490</v>
       </c>
@@ -3294,8 +6988,38 @@
       <c r="G123" s="5">
         <v>-2.4309622834887195E-3</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="7">
+        <v>8.4076522960778763E-2</v>
+      </c>
+      <c r="J123" s="7">
+        <v>0.12293561470508879</v>
+      </c>
+      <c r="K123" s="7">
+        <v>6.0135180333960932E-2</v>
+      </c>
+      <c r="L123" s="7">
+        <v>0.18425813764907462</v>
+      </c>
+      <c r="M123" s="7">
+        <v>0.16609574398381888</v>
+      </c>
+      <c r="N123" s="7">
+        <v>4.0263502678018023E-2</v>
+      </c>
+      <c r="O123" s="7">
+        <v>3.0636730269184748E-2</v>
+      </c>
+      <c r="P123" s="7">
+        <v>0.12703044440959191</v>
+      </c>
+      <c r="Q123" s="7">
+        <v>0.10623635461229412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>42521</v>
       </c>
@@ -3317,8 +7041,38 @@
       <c r="G124" s="5">
         <v>6.443066833530995E-3</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I124" s="7">
+        <v>8.5092848903861013E-2</v>
+      </c>
+      <c r="J124" s="7">
+        <v>0.12259187102937982</v>
+      </c>
+      <c r="K124" s="7">
+        <v>6.1216741001009947E-2</v>
+      </c>
+      <c r="L124" s="7">
+        <v>0.18621382935285719</v>
+      </c>
+      <c r="M124" s="7">
+        <v>0.15964642070618087</v>
+      </c>
+      <c r="N124" s="7">
+        <v>4.0859270603374125E-2</v>
+      </c>
+      <c r="O124" s="7">
+        <v>3.093470138845518E-2</v>
+      </c>
+      <c r="P124" s="7">
+        <v>0.1248398224078955</v>
+      </c>
+      <c r="Q124" s="7">
+        <v>0.10294217748964742</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>42551</v>
       </c>
@@ -3340,8 +7094,38 @@
       <c r="G125" s="5">
         <v>1.4665690477191984E-2</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="7">
+        <v>7.9903775805976074E-2</v>
+      </c>
+      <c r="J125" s="7">
+        <v>0.12100318416135851</v>
+      </c>
+      <c r="K125" s="7">
+        <v>6.0020340688017121E-2</v>
+      </c>
+      <c r="L125" s="7">
+        <v>0.17670198836562198</v>
+      </c>
+      <c r="M125" s="7">
+        <v>0.1605228173531113</v>
+      </c>
+      <c r="N125" s="7">
+        <v>3.9725413557148759E-2</v>
+      </c>
+      <c r="O125" s="7">
+        <v>3.1405153612465903E-2</v>
+      </c>
+      <c r="P125" s="7">
+        <v>0.12545102361311433</v>
+      </c>
+      <c r="Q125" s="7">
+        <v>0.10707982977379385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>42582</v>
       </c>
@@ -3363,8 +7147,38 @@
       <c r="G126" s="5">
         <v>2.9707229956298806E-2</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" s="7">
+        <v>8.2327657559569001E-2</v>
+      </c>
+      <c r="J126" s="7">
+        <v>0.12307965219739267</v>
+      </c>
+      <c r="K126" s="7">
+        <v>5.9902186515343604E-2</v>
+      </c>
+      <c r="L126" s="7">
+        <v>0.17222021985964148</v>
+      </c>
+      <c r="M126" s="7">
+        <v>0.15559838996679931</v>
+      </c>
+      <c r="N126" s="7">
+        <v>3.8053946299661114E-2</v>
+      </c>
+      <c r="O126" s="7">
+        <v>2.9962232644618472E-2</v>
+      </c>
+      <c r="P126" s="7">
+        <v>0.12295353108861927</v>
+      </c>
+      <c r="Q126" s="7">
+        <v>0.105728815987213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>42613</v>
       </c>
@@ -3386,8 +7200,38 @@
       <c r="G127" s="5">
         <v>3.6122505817203596E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" s="7">
+        <v>8.3067175711847366E-2</v>
+      </c>
+      <c r="J127" s="7">
+        <v>0.1218823105444193</v>
+      </c>
+      <c r="K127" s="7">
+        <v>6.1147710357421316E-2</v>
+      </c>
+      <c r="L127" s="7">
+        <v>0.17284752026847461</v>
+      </c>
+      <c r="M127" s="7">
+        <v>0.15119065228243384</v>
+      </c>
+      <c r="N127" s="7">
+        <v>3.8029888640673415E-2</v>
+      </c>
+      <c r="O127" s="7">
+        <v>2.9867315173953239E-2</v>
+      </c>
+      <c r="P127" s="7">
+        <v>0.11937097913201397</v>
+      </c>
+      <c r="Q127" s="7">
+        <v>0.10664554228681719</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>42643</v>
       </c>
@@ -3409,8 +7253,38 @@
       <c r="G128" s="5">
         <v>3.5225541105651272E-2</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I128" s="7">
+        <v>8.232104015032593E-2</v>
+      </c>
+      <c r="J128" s="7">
+        <v>0.12166779622375919</v>
+      </c>
+      <c r="K128" s="7">
+        <v>6.2463928409071119E-2</v>
+      </c>
+      <c r="L128" s="7">
+        <v>0.16952069686509927</v>
+      </c>
+      <c r="M128" s="7">
+        <v>0.15641618486262709</v>
+      </c>
+      <c r="N128" s="7">
+        <v>3.8583888630347313E-2</v>
+      </c>
+      <c r="O128" s="7">
+        <v>3.024826608468173E-2</v>
+      </c>
+      <c r="P128" s="7">
+        <v>0.11974420850338102</v>
+      </c>
+      <c r="Q128" s="7">
+        <v>0.10499805834644972</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>42674</v>
       </c>
@@ -3432,8 +7306,38 @@
       <c r="G129" s="5">
         <v>3.4369387277431579E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="7">
+        <v>8.0604228022822647E-2</v>
+      </c>
+      <c r="J129" s="7">
+        <v>0.12096521032743443</v>
+      </c>
+      <c r="K129" s="7">
+        <v>6.2180931871220944E-2</v>
+      </c>
+      <c r="L129" s="7">
+        <v>0.17322335431053518</v>
+      </c>
+      <c r="M129" s="7">
+        <v>0.1552658580062268</v>
+      </c>
+      <c r="N129" s="7">
+        <v>3.9628451760954649E-2</v>
+      </c>
+      <c r="O129" s="7">
+        <v>3.0575767613429488E-2</v>
+      </c>
+      <c r="P129" s="7">
+        <v>0.12145560249716154</v>
+      </c>
+      <c r="Q129" s="7">
+        <v>0.10346396468597979</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>42704</v>
       </c>
@@ -3455,8 +7359,38 @@
       <c r="G130" s="5">
         <v>4.055419983933798E-2</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I130" s="7">
+        <v>8.3922586561572476E-2</v>
+      </c>
+      <c r="J130" s="7">
+        <v>0.12125283856860912</v>
+      </c>
+      <c r="K130" s="7">
+        <v>6.301389347796138E-2</v>
+      </c>
+      <c r="L130" s="7">
+        <v>0.173864479011619</v>
+      </c>
+      <c r="M130" s="7">
+        <v>0.1508588650672561</v>
+      </c>
+      <c r="N130" s="7">
+        <v>3.9448556262846102E-2</v>
+      </c>
+      <c r="O130" s="7">
+        <v>3.0290658431489061E-2</v>
+      </c>
+      <c r="P130" s="7">
+        <v>0.11636306520294376</v>
+      </c>
+      <c r="Q130" s="7">
+        <v>0.1043621472107439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>42735</v>
       </c>
@@ -3470,7 +7404,7 @@
         <v>0.22831110922891495</v>
       </c>
       <c r="E131" s="4">
-        <v>-1</v>
+        <v>0.22490847501214958</v>
       </c>
       <c r="F131" s="4">
         <v>8.2089372407980199E-2</v>
@@ -3478,8 +7412,38 @@
       <c r="G131" s="5">
         <v>4.2560696562781155E-3</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" s="7">
+        <v>9.1943607285259785E-2</v>
+      </c>
+      <c r="J131" s="7">
+        <v>0.12815506738160967</v>
+      </c>
+      <c r="K131" s="7">
+        <v>6.0589332836505853E-2</v>
+      </c>
+      <c r="L131" s="7">
+        <v>0.18880789954015026</v>
+      </c>
+      <c r="M131" s="7">
+        <v>0.15940873177793471</v>
+      </c>
+      <c r="N131" s="7">
+        <v>4.1422419775870266E-2</v>
+      </c>
+      <c r="O131" s="7">
+        <v>3.0978696948453496E-2</v>
+      </c>
+      <c r="P131" s="7">
+        <v>0.12230487506386925</v>
+      </c>
+      <c r="Q131" s="7">
+        <v>9.0043927326088347E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>42766</v>
       </c>
@@ -3501,8 +7465,38 @@
       <c r="G132" s="5">
         <v>2.3618528029877368E-2</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="7">
+        <v>9.1836030229293625E-2</v>
+      </c>
+      <c r="J132" s="7">
+        <v>0.13668402955402301</v>
+      </c>
+      <c r="K132" s="7">
+        <v>5.9768667512018002E-2</v>
+      </c>
+      <c r="L132" s="7">
+        <v>0.18798045180476441</v>
+      </c>
+      <c r="M132" s="7">
+        <v>0.15268708680669899</v>
+      </c>
+      <c r="N132" s="7">
+        <v>3.9551517386190199E-2</v>
+      </c>
+      <c r="O132" s="7">
+        <v>3.0269780100229168E-2</v>
+      </c>
+      <c r="P132" s="7">
+        <v>0.11570224486770939</v>
+      </c>
+      <c r="Q132" s="7">
+        <v>8.2527441230648924E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>42794</v>
       </c>
@@ -3524,8 +7518,38 @@
       <c r="G133" s="5">
         <v>2.0522302311393872E-2</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="7">
+        <v>9.2433888989038634E-2</v>
+      </c>
+      <c r="J133" s="7">
+        <v>0.13633957543098918</v>
+      </c>
+      <c r="K133" s="7">
+        <v>5.9105041122247202E-2</v>
+      </c>
+      <c r="L133" s="7">
+        <v>0.18469797715884373</v>
+      </c>
+      <c r="M133" s="7">
+        <v>0.14233721267370139</v>
+      </c>
+      <c r="N133" s="7">
+        <v>3.8459935147950472E-2</v>
+      </c>
+      <c r="O133" s="7">
+        <v>2.9861744790516027E-2</v>
+      </c>
+      <c r="P133" s="7">
+        <v>0.11972853996158507</v>
+      </c>
+      <c r="Q133" s="7">
+        <v>9.5985492021154278E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>42825</v>
       </c>
@@ -3547,8 +7571,38 @@
       <c r="G134" s="5">
         <v>2.9506443807180951E-2</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="7">
+        <v>9.2328523950496177E-2</v>
+      </c>
+      <c r="J134" s="7">
+        <v>0.13878188496767335</v>
+      </c>
+      <c r="K134" s="7">
+        <v>5.9059342227649081E-2</v>
+      </c>
+      <c r="L134" s="7">
+        <v>0.17826656284705367</v>
+      </c>
+      <c r="M134" s="7">
+        <v>0.14027197918458373</v>
+      </c>
+      <c r="N134" s="7">
+        <v>3.9585885780250109E-2</v>
+      </c>
+      <c r="O134" s="7">
+        <v>3.0361789757787142E-2</v>
+      </c>
+      <c r="P134" s="7">
+        <v>0.12108670730899482</v>
+      </c>
+      <c r="Q134" s="7">
+        <v>9.0904193027072491E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>42855</v>
       </c>
@@ -3570,8 +7624,38 @@
       <c r="G135" s="5">
         <v>2.3990302077257809E-2</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="7">
+        <v>9.4451623729890827E-2</v>
+      </c>
+      <c r="J135" s="7">
+        <v>0.14245553551325726</v>
+      </c>
+      <c r="K135" s="7">
+        <v>5.9786820324793322E-2</v>
+      </c>
+      <c r="L135" s="7">
+        <v>0.17733680827391216</v>
+      </c>
+      <c r="M135" s="7">
+        <v>0.14114707820037442</v>
+      </c>
+      <c r="N135" s="7">
+        <v>4.0289770434909687E-2</v>
+      </c>
+      <c r="O135" s="7">
+        <v>3.0732036422751963E-2</v>
+      </c>
+      <c r="P135" s="7">
+        <v>0.12384115656475787</v>
+      </c>
+      <c r="Q135" s="7">
+        <v>8.6123263730203084E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>42886</v>
       </c>
@@ -3593,8 +7677,38 @@
       <c r="G136" s="5">
         <v>2.2650782029414306E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I136" s="7">
+        <v>9.2861915134252584E-2</v>
+      </c>
+      <c r="J136" s="7">
+        <v>0.14687220265261181</v>
+      </c>
+      <c r="K136" s="7">
+        <v>6.0899545403807924E-2</v>
+      </c>
+      <c r="L136" s="7">
+        <v>0.17590485209330373</v>
+      </c>
+      <c r="M136" s="7">
+        <v>0.13854391927417012</v>
+      </c>
+      <c r="N136" s="7">
+        <v>4.1706489929785255E-2</v>
+      </c>
+      <c r="O136" s="7">
+        <v>3.1083974650964512E-2</v>
+      </c>
+      <c r="P136" s="7">
+        <v>0.12402111642422795</v>
+      </c>
+      <c r="Q136" s="7">
+        <v>8.5480821287471406E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>42916</v>
       </c>
@@ -3616,8 +7730,38 @@
       <c r="G137" s="5">
         <v>2.9373445950862657E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I137" s="7">
+        <v>9.5219257696732826E-2</v>
+      </c>
+      <c r="J137" s="7">
+        <v>0.14558411555360215</v>
+      </c>
+      <c r="K137" s="7">
+        <v>6.0046220894107626E-2</v>
+      </c>
+      <c r="L137" s="7">
+        <v>0.168707329854801</v>
+      </c>
+      <c r="M137" s="7">
+        <v>0.14947043248164563</v>
+      </c>
+      <c r="N137" s="7">
+        <v>4.2011957065989217E-2</v>
+      </c>
+      <c r="O137" s="7">
+        <v>2.9970591193979223E-2</v>
+      </c>
+      <c r="P137" s="7">
+        <v>0.12172658752465625</v>
+      </c>
+      <c r="Q137" s="7">
+        <v>8.1893404022842523E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>42947</v>
       </c>
@@ -3639,8 +7783,38 @@
       <c r="G138" s="5">
         <v>7.5450765726136626E-3</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I138" s="7">
+        <v>9.6482482160823196E-2</v>
+      </c>
+      <c r="J138" s="7">
+        <v>0.14474439917118939</v>
+      </c>
+      <c r="K138" s="7">
+        <v>0.1114293482191319</v>
+      </c>
+      <c r="L138" s="7">
+        <v>0.15492850919566611</v>
+      </c>
+      <c r="M138" s="7">
+        <v>0.16490932237145736</v>
+      </c>
+      <c r="N138" s="7">
+        <v>4.4650383756412691E-2</v>
+      </c>
+      <c r="O138" s="7">
+        <v>1.9195412668217976E-2</v>
+      </c>
+      <c r="P138" s="7">
+        <v>0.12044502165596781</v>
+      </c>
+      <c r="Q138" s="7">
+        <v>6.6658585826387368E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>42978</v>
       </c>
@@ -3662,8 +7836,38 @@
       <c r="G139" s="5">
         <v>1.7017519870053642E-2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="7">
+        <v>9.5025619759401742E-2</v>
+      </c>
+      <c r="J139" s="7">
+        <v>0.13859570952046441</v>
+      </c>
+      <c r="K139" s="7">
+        <v>0.11297546233777453</v>
+      </c>
+      <c r="L139" s="7">
+        <v>0.155372194641028</v>
+      </c>
+      <c r="M139" s="7">
+        <v>0.16479118941724183</v>
+      </c>
+      <c r="N139" s="7">
+        <v>4.5559358147253703E-2</v>
+      </c>
+      <c r="O139" s="7">
+        <v>1.9793647129840469E-2</v>
+      </c>
+      <c r="P139" s="7">
+        <v>0.11872048923606547</v>
+      </c>
+      <c r="Q139" s="7">
+        <v>6.2478602258194127E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>43008</v>
       </c>
@@ -3685,8 +7889,38 @@
       <c r="G140" s="5">
         <v>2.4867815818896064E-2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="7">
+        <v>9.5736424611050197E-2</v>
+      </c>
+      <c r="J140" s="7">
+        <v>0.14277465961078264</v>
+      </c>
+      <c r="K140" s="7">
+        <v>0.10899124036496148</v>
+      </c>
+      <c r="L140" s="7">
+        <v>0.14967237923320717</v>
+      </c>
+      <c r="M140" s="7">
+        <v>0.16003402853267268</v>
+      </c>
+      <c r="N140" s="7">
+        <v>4.7065410675754961E-2</v>
+      </c>
+      <c r="O140" s="7">
+        <v>2.0547701339857238E-2</v>
+      </c>
+      <c r="P140" s="7">
+        <v>0.118871681085049</v>
+      </c>
+      <c r="Q140" s="7">
+        <v>6.321124405890842E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>43039</v>
       </c>
@@ -3708,8 +7942,38 @@
       <c r="G141" s="5">
         <v>2.6107130743642102E-2</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" s="7">
+        <v>9.6552113652618995E-2</v>
+      </c>
+      <c r="J141" s="7">
+        <v>0.14114750066765921</v>
+      </c>
+      <c r="K141" s="7">
+        <v>0.11158536048167056</v>
+      </c>
+      <c r="L141" s="7">
+        <v>0.15036848379512099</v>
+      </c>
+      <c r="M141" s="7">
+        <v>0.15816344905052473</v>
+      </c>
+      <c r="N141" s="7">
+        <v>4.7708603070293495E-2</v>
+      </c>
+      <c r="O141" s="7">
+        <v>2.150309339548797E-2</v>
+      </c>
+      <c r="P141" s="7">
+        <v>0.11667063726659596</v>
+      </c>
+      <c r="Q141" s="7">
+        <v>6.2537905888662579E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>43069</v>
       </c>
@@ -3731,8 +7995,38 @@
       <c r="G142" s="5">
         <v>3.1282793315664165E-2</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" s="7">
+        <v>9.7937545105629159E-2</v>
+      </c>
+      <c r="J142" s="7">
+        <v>0.14505784223045362</v>
+      </c>
+      <c r="K142" s="7">
+        <v>0.1106863224424538</v>
+      </c>
+      <c r="L142" s="7">
+        <v>0.14569889649321052</v>
+      </c>
+      <c r="M142" s="7">
+        <v>0.15611094177597518</v>
+      </c>
+      <c r="N142" s="7">
+        <v>4.7863748046099178E-2</v>
+      </c>
+      <c r="O142" s="7">
+        <v>2.0868208963276447E-2</v>
+      </c>
+      <c r="P142" s="7">
+        <v>0.1152883314530795</v>
+      </c>
+      <c r="Q142" s="7">
+        <v>6.1406005810040722E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>43100</v>
       </c>
@@ -3754,8 +8048,38 @@
       <c r="G143" s="5">
         <v>1.3017829688445741E-2</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" s="7">
+        <v>9.4908966566681643E-2</v>
+      </c>
+      <c r="J143" s="7">
+        <v>0.14079707105169992</v>
+      </c>
+      <c r="K143" s="7">
+        <v>0.11140326746646179</v>
+      </c>
+      <c r="L143" s="7">
+        <v>0.14349827225168901</v>
+      </c>
+      <c r="M143" s="7">
+        <v>0.16513706110002344</v>
+      </c>
+      <c r="N143" s="7">
+        <v>5.0880195585477767E-2</v>
+      </c>
+      <c r="O143" s="7">
+        <v>2.3029806917091479E-2</v>
+      </c>
+      <c r="P143" s="7">
+        <v>0.12311063325993538</v>
+      </c>
+      <c r="Q143" s="7">
+        <v>5.813659291318149E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>43131</v>
       </c>
@@ -3777,8 +8101,38 @@
       <c r="G144" s="5">
         <v>2.2654911849786769E-2</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I144" s="7">
+        <v>9.7808718365816519E-2</v>
+      </c>
+      <c r="J144" s="7">
+        <v>0.14246677191665397</v>
+      </c>
+      <c r="K144" s="7">
+        <v>0.10973820688066986</v>
+      </c>
+      <c r="L144" s="7">
+        <v>0.13972671726320671</v>
+      </c>
+      <c r="M144" s="7">
+        <v>0.16256950763484318</v>
+      </c>
+      <c r="N144" s="7">
+        <v>5.0354280815518529E-2</v>
+      </c>
+      <c r="O144" s="7">
+        <v>2.2713271323744275E-2</v>
+      </c>
+      <c r="P144" s="7">
+        <v>0.11899758350843785</v>
+      </c>
+      <c r="Q144" s="7">
+        <v>5.8553919881215395E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>43159</v>
       </c>
@@ -3800,8 +8154,38 @@
       <c r="G145" s="5">
         <v>1.9499360054822688E-2</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I145" s="7">
+        <v>9.580821099204781E-2</v>
+      </c>
+      <c r="J145" s="7">
+        <v>0.1424097416221963</v>
+      </c>
+      <c r="K145" s="7">
+        <v>0.10836326519609171</v>
+      </c>
+      <c r="L145" s="7">
+        <v>0.1393387698045884</v>
+      </c>
+      <c r="M145" s="7">
+        <v>0.16076164046101557</v>
+      </c>
+      <c r="N145" s="7">
+        <v>5.1858546846457992E-2</v>
+      </c>
+      <c r="O145" s="7">
+        <v>2.2495052795039411E-2</v>
+      </c>
+      <c r="P145" s="7">
+        <v>0.12037453528477003</v>
+      </c>
+      <c r="Q145" s="7">
+        <v>6.4798631188650244E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>43190</v>
       </c>
@@ -3823,8 +8207,38 @@
       <c r="G146" s="5">
         <v>2.1750497087874136E-2</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I146" s="7">
+        <v>8.8872311214568261E-2</v>
+      </c>
+      <c r="J146" s="7">
+        <v>0.14034865283562975</v>
+      </c>
+      <c r="K146" s="7">
+        <v>0.10844418444425941</v>
+      </c>
+      <c r="L146" s="7">
+        <v>0.13614894153275259</v>
+      </c>
+      <c r="M146" s="7">
+        <v>0.16267765843283982</v>
+      </c>
+      <c r="N146" s="7">
+        <v>5.32631326834309E-2</v>
+      </c>
+      <c r="O146" s="7">
+        <v>2.3619921445785834E-2</v>
+      </c>
+      <c r="P146" s="7">
+        <v>0.12290367896143378</v>
+      </c>
+      <c r="Q146" s="7">
+        <v>6.693692551795162E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>43220</v>
       </c>
@@ -3846,8 +8260,38 @@
       <c r="G147" s="5">
         <v>1.9887177164934773E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="7">
+        <v>9.0944237108001855E-2</v>
+      </c>
+      <c r="J147" s="7">
+        <v>0.1454757753799861</v>
+      </c>
+      <c r="K147" s="7">
+        <v>0.10797560984650394</v>
+      </c>
+      <c r="L147" s="7">
+        <v>0.13536457291005849</v>
+      </c>
+      <c r="M147" s="7">
+        <v>0.15926704164516894</v>
+      </c>
+      <c r="N147" s="7">
+        <v>5.4003662842458854E-2</v>
+      </c>
+      <c r="O147" s="7">
+        <v>2.3529297580231739E-2</v>
+      </c>
+      <c r="P147" s="7">
+        <v>0.12158382724713214</v>
+      </c>
+      <c r="Q147" s="7">
+        <v>6.7539656208089771E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>43251</v>
       </c>
@@ -3869,8 +8313,38 @@
       <c r="G148" s="5">
         <v>2.9447277397907753E-2</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" s="7">
+        <v>9.2885130035604876E-2</v>
+      </c>
+      <c r="J148" s="7">
+        <v>0.14461787449150937</v>
+      </c>
+      <c r="K148" s="7">
+        <v>0.11055506992460537</v>
+      </c>
+      <c r="L148" s="7">
+        <v>0.13322793015325757</v>
+      </c>
+      <c r="M148" s="7">
+        <v>0.15567825600673754</v>
+      </c>
+      <c r="N148" s="7">
+        <v>5.4458973653718275E-2</v>
+      </c>
+      <c r="O148" s="7">
+        <v>2.2367997575935328E-2</v>
+      </c>
+      <c r="P148" s="7">
+        <v>0.11886793211845727</v>
+      </c>
+      <c r="Q148" s="7">
+        <v>6.401112168573006E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>43281</v>
       </c>
@@ -3892,8 +8366,38 @@
       <c r="G149" s="5">
         <v>6.2911589175537574E-2</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="7">
+        <v>9.2252988825674467E-2</v>
+      </c>
+      <c r="J149" s="7">
+        <v>0.13941091152691026</v>
+      </c>
+      <c r="K149" s="7">
+        <v>0.11044033185580256</v>
+      </c>
+      <c r="L149" s="7">
+        <v>0.10642618528063723</v>
+      </c>
+      <c r="M149" s="7">
+        <v>0.16256307149635021</v>
+      </c>
+      <c r="N149" s="7">
+        <v>5.5995874785817107E-2</v>
+      </c>
+      <c r="O149" s="7">
+        <v>2.175626987566057E-2</v>
+      </c>
+      <c r="P149" s="7">
+        <v>0.1158425184422445</v>
+      </c>
+      <c r="Q149" s="7">
+        <v>5.9863240844962418E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>43312</v>
       </c>
@@ -3915,8 +8419,38 @@
       <c r="G150" s="5">
         <v>7.4518795434139376E-2</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I150" s="7">
+        <v>9.4358387749265513E-2</v>
+      </c>
+      <c r="J150" s="7">
+        <v>0.14058860416540173</v>
+      </c>
+      <c r="K150" s="7">
+        <v>0.1115069851322789</v>
+      </c>
+      <c r="L150" s="7">
+        <v>0.10570540938351658</v>
+      </c>
+      <c r="M150" s="7">
+        <v>0.15068286881980678</v>
+      </c>
+      <c r="N150" s="7">
+        <v>5.6257986613909447E-2</v>
+      </c>
+      <c r="O150" s="7">
+        <v>2.3081664190034452E-2</v>
+      </c>
+      <c r="P150" s="7">
+        <v>0.11222668113155669</v>
+      </c>
+      <c r="Q150" s="7">
+        <v>5.9512547304304518E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>43343</v>
       </c>
@@ -3938,8 +8472,38 @@
       <c r="G151" s="5">
         <v>7.0131865480368163E-2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" s="7">
+        <v>9.5493557207970314E-2</v>
+      </c>
+      <c r="J151" s="7">
+        <v>0.13891782813651604</v>
+      </c>
+      <c r="K151" s="7">
+        <v>0.11224320573337671</v>
+      </c>
+      <c r="L151" s="7">
+        <v>0.1119424216635343</v>
+      </c>
+      <c r="M151" s="7">
+        <v>0.14977901893205722</v>
+      </c>
+      <c r="N151" s="7">
+        <v>5.707448114987073E-2</v>
+      </c>
+      <c r="O151" s="7">
+        <v>2.2693091663456479E-2</v>
+      </c>
+      <c r="P151" s="7">
+        <v>0.11125934474078025</v>
+      </c>
+      <c r="Q151" s="7">
+        <v>5.9031164908383893E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>43373</v>
       </c>
@@ -3961,8 +8525,38 @@
       <c r="G152" s="5">
         <v>6.3633595507376864E-2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I152" s="7">
+        <v>9.5411330106896314E-2</v>
+      </c>
+      <c r="J152" s="7">
+        <v>0.13480864920449478</v>
+      </c>
+      <c r="K152" s="7">
+        <v>0.11024997734213497</v>
+      </c>
+      <c r="L152" s="7">
+        <v>0.11149839906231067</v>
+      </c>
+      <c r="M152" s="7">
+        <v>0.15072267964102429</v>
+      </c>
+      <c r="N152" s="7">
+        <v>5.9032420900187836E-2</v>
+      </c>
+      <c r="O152" s="7">
+        <v>2.2992877817738882E-2</v>
+      </c>
+      <c r="P152" s="7">
+        <v>0.11264992612358521</v>
+      </c>
+      <c r="Q152" s="7">
+        <v>6.8417825026669266E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>43404</v>
       </c>
@@ -3984,8 +8578,38 @@
       <c r="G153" s="5">
         <v>3.7552940165709398E-2</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" s="7">
+        <v>9.5233619156605429E-2</v>
+      </c>
+      <c r="J153" s="7">
+        <v>0.13575073055370754</v>
+      </c>
+      <c r="K153" s="7">
+        <v>0.12219303674247661</v>
+      </c>
+      <c r="L153" s="7">
+        <v>0.11331091036517023</v>
+      </c>
+      <c r="M153" s="7">
+        <v>0.15289713140123704</v>
+      </c>
+      <c r="N153" s="7">
+        <v>6.2378948160622873E-2</v>
+      </c>
+      <c r="O153" s="7">
+        <v>2.4215454998506362E-2</v>
+      </c>
+      <c r="P153" s="7">
+        <v>0.11660538876575338</v>
+      </c>
+      <c r="Q153" s="7">
+        <v>6.8964722536063047E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>43434</v>
       </c>
@@ -4007,8 +8631,38 @@
       <c r="G154" s="5">
         <v>3.625095401307845E-2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" s="7">
+        <v>9.3698603069802405E-2</v>
+      </c>
+      <c r="J154" s="7">
+        <v>0.13883656235974479</v>
+      </c>
+      <c r="K154" s="7">
+        <v>0.12330718763580241</v>
+      </c>
+      <c r="L154" s="7">
+        <v>0.1118746151202285</v>
+      </c>
+      <c r="M154" s="7">
+        <v>0.15562271257438307</v>
+      </c>
+      <c r="N154" s="7">
+        <v>6.3098614945287831E-2</v>
+      </c>
+      <c r="O154" s="7">
+        <v>2.4021580344978314E-2</v>
+      </c>
+      <c r="P154" s="7">
+        <v>0.1127920148564983</v>
+      </c>
+      <c r="Q154" s="7">
+        <v>6.9126130518461865E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>43465</v>
       </c>
@@ -4030,8 +8684,38 @@
       <c r="G155" s="5">
         <v>1.8910946240328144E-2</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" s="7">
+        <v>9.2740206008050843E-2</v>
+      </c>
+      <c r="J155" s="7">
+        <v>0.13943186830420956</v>
+      </c>
+      <c r="K155" s="7">
+        <v>0.12533600463010861</v>
+      </c>
+      <c r="L155" s="7">
+        <v>8.7485272068574982E-2</v>
+      </c>
+      <c r="M155" s="7">
+        <v>0.15542250748830364</v>
+      </c>
+      <c r="N155" s="7">
+        <v>6.7092962945315512E-2</v>
+      </c>
+      <c r="O155" s="7">
+        <v>2.5227634911302501E-2</v>
+      </c>
+      <c r="P155" s="7">
+        <v>0.11886781619861593</v>
+      </c>
+      <c r="Q155" s="7">
+        <v>6.7990827398904052E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>43496</v>
       </c>
@@ -4053,8 +8737,38 @@
       <c r="G156" s="5">
         <v>1.8713553739999344E-2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" s="7">
+        <v>9.5590210395800568E-2</v>
+      </c>
+      <c r="J156" s="7">
+        <v>0.14121524082079859</v>
+      </c>
+      <c r="K156" s="7">
+        <v>0.12994106665171268</v>
+      </c>
+      <c r="L156" s="7">
+        <v>8.6452481385996843E-2</v>
+      </c>
+      <c r="M156" s="7">
+        <v>0.15249572607523224</v>
+      </c>
+      <c r="N156" s="7">
+        <v>6.6025159188614652E-2</v>
+      </c>
+      <c r="O156" s="7">
+        <v>2.4789600685616638E-2</v>
+      </c>
+      <c r="P156" s="7">
+        <v>0.11634149064029875</v>
+      </c>
+      <c r="Q156" s="7">
+        <v>6.79675611623934E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>43524</v>
       </c>
@@ -4076,8 +8790,38 @@
       <c r="G157" s="5">
         <v>1.5674573277313048E-2</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I157" s="7">
+        <v>9.7240096808175774E-2</v>
+      </c>
+      <c r="J157" s="7">
+        <v>0.14235690572810569</v>
+      </c>
+      <c r="K157" s="7">
+        <v>0.13065811154812521</v>
+      </c>
+      <c r="L157" s="7">
+        <v>8.6308583917144216E-2</v>
+      </c>
+      <c r="M157" s="7">
+        <v>0.15071993837191233</v>
+      </c>
+      <c r="N157" s="7">
+        <v>6.4944574870610006E-2</v>
+      </c>
+      <c r="O157" s="7">
+        <v>2.2866064982584821E-2</v>
+      </c>
+      <c r="P157" s="7">
+        <v>0.11721810007777494</v>
+      </c>
+      <c r="Q157" s="7">
+        <v>7.2786987296258265E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>43555</v>
       </c>
@@ -4099,8 +8843,38 @@
       <c r="G158" s="5">
         <v>1.843891776449785E-2</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I158" s="7">
+        <v>9.5821535693971602E-2</v>
+      </c>
+      <c r="J158" s="7">
+        <v>0.14345281474804256</v>
+      </c>
+      <c r="K158" s="7">
+        <v>0.12654264769749277</v>
+      </c>
+      <c r="L158" s="7">
+        <v>8.479993397332819E-2</v>
+      </c>
+      <c r="M158" s="7">
+        <v>0.14929424464146135</v>
+      </c>
+      <c r="N158" s="7">
+        <v>7.0375532204837207E-2</v>
+      </c>
+      <c r="O158" s="7">
+        <v>2.3833320344760989E-2</v>
+      </c>
+      <c r="P158" s="7">
+        <v>0.115574932718136</v>
+      </c>
+      <c r="Q158" s="7">
+        <v>7.3278305587616402E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>43585</v>
       </c>
@@ -4122,8 +8896,38 @@
       <c r="G159" s="5">
         <v>1.996250402913546E-2</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="7">
+        <v>0.10106218957522105</v>
+      </c>
+      <c r="J159" s="7">
+        <v>0.144845793725602</v>
+      </c>
+      <c r="K159" s="7">
+        <v>0.12719406029562408</v>
+      </c>
+      <c r="L159" s="7">
+        <v>8.4464924328846572E-2</v>
+      </c>
+      <c r="M159" s="7">
+        <v>0.14587552464324355</v>
+      </c>
+      <c r="N159" s="7">
+        <v>6.9220995128258384E-2</v>
+      </c>
+      <c r="O159" s="7">
+        <v>2.28844251093871E-2</v>
+      </c>
+      <c r="P159" s="7">
+        <v>0.11429530426472252</v>
+      </c>
+      <c r="Q159" s="7">
+        <v>7.3540361052260542E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>43616</v>
       </c>
@@ -4145,8 +8949,38 @@
       <c r="G160" s="5">
         <v>2.5922135015749106E-2</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="7">
+        <v>9.7408595207166854E-2</v>
+      </c>
+      <c r="J160" s="7">
+        <v>0.13877763308539395</v>
+      </c>
+      <c r="K160" s="7">
+        <v>0.12197750242322712</v>
+      </c>
+      <c r="L160" s="7">
+        <v>8.7141955266011983E-2</v>
+      </c>
+      <c r="M160" s="7">
+        <v>0.14915917114832977</v>
+      </c>
+      <c r="N160" s="7">
+        <v>7.1284020392724828E-2</v>
+      </c>
+      <c r="O160" s="7">
+        <v>2.3339371824766121E-2</v>
+      </c>
+      <c r="P160" s="7">
+        <v>0.1136585657164879</v>
+      </c>
+      <c r="Q160" s="7">
+        <v>7.2018045604996014E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>43646</v>
       </c>
@@ -4168,8 +9002,38 @@
       <c r="G161" s="5">
         <v>2.774292751890339E-2</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I161" s="7">
+        <v>0.10096907568980457</v>
+      </c>
+      <c r="J161" s="7">
+        <v>0.14225731458145333</v>
+      </c>
+      <c r="K161" s="7">
+        <v>0.12189709122868171</v>
+      </c>
+      <c r="L161" s="7">
+        <v>8.1564603806275282E-2</v>
+      </c>
+      <c r="M161" s="7">
+        <v>0.15276418998522359</v>
+      </c>
+      <c r="N161" s="7">
+        <v>7.5151151102663225E-2</v>
+      </c>
+      <c r="O161" s="7">
+        <v>2.2699813573129706E-2</v>
+      </c>
+      <c r="P161" s="7">
+        <v>0.10750611600644107</v>
+      </c>
+      <c r="Q161" s="7">
+        <v>7.0032703765108562E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>43677</v>
       </c>
@@ -4191,8 +9055,38 @@
       <c r="G162" s="5">
         <v>4.6776879321960181E-2</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="7">
+        <v>9.9565114366531121E-2</v>
+      </c>
+      <c r="J162" s="7">
+        <v>0.13861704329628283</v>
+      </c>
+      <c r="K162" s="7">
+        <v>0.12080706757402623</v>
+      </c>
+      <c r="L162" s="7">
+        <v>7.9015240851811469E-2</v>
+      </c>
+      <c r="M162" s="7">
+        <v>0.14977055946777154</v>
+      </c>
+      <c r="N162" s="7">
+        <v>7.2175041893157238E-2</v>
+      </c>
+      <c r="O162" s="7">
+        <v>2.2809871637367547E-2</v>
+      </c>
+      <c r="P162" s="7">
+        <v>0.10431030522487086</v>
+      </c>
+      <c r="Q162" s="7">
+        <v>7.0636040780064524E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>43708</v>
       </c>
@@ -4214,8 +9108,38 @@
       <c r="G163" s="5">
         <v>4.4506723436803647E-2</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I163" s="7">
+        <v>9.9055817638677809E-2</v>
+      </c>
+      <c r="J163" s="7">
+        <v>0.1405858634717112</v>
+      </c>
+      <c r="K163" s="7">
+        <v>0.11976857621196839</v>
+      </c>
+      <c r="L163" s="7">
+        <v>7.9298135047806403E-2</v>
+      </c>
+      <c r="M163" s="7">
+        <v>0.15031712598818922</v>
+      </c>
+      <c r="N163" s="7">
+        <v>7.3581286824084907E-2</v>
+      </c>
+      <c r="O163" s="7">
+        <v>2.1981236391064439E-2</v>
+      </c>
+      <c r="P163" s="7">
+        <v>0.10399327631377309</v>
+      </c>
+      <c r="Q163" s="7">
+        <v>6.8991337952541198E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>43738</v>
       </c>
@@ -4237,8 +9161,38 @@
       <c r="G164" s="5">
         <v>4.6935788283219544E-2</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I164" s="7">
+        <v>9.9915807646175581E-2</v>
+      </c>
+      <c r="J164" s="7">
+        <v>0.14305404268410016</v>
+      </c>
+      <c r="K164" s="7">
+        <v>0.11791029802208923</v>
+      </c>
+      <c r="L164" s="7">
+        <v>7.408139416107766E-2</v>
+      </c>
+      <c r="M164" s="7">
+        <v>0.15204032381527446</v>
+      </c>
+      <c r="N164" s="7">
+        <v>7.33408754938005E-2</v>
+      </c>
+      <c r="O164" s="7">
+        <v>2.2401607869325772E-2</v>
+      </c>
+      <c r="P164" s="7">
+        <v>0.10548644411106137</v>
+      </c>
+      <c r="Q164" s="7">
+        <v>6.7782114392798187E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>43769</v>
       </c>
@@ -4260,8 +9214,38 @@
       <c r="G165" s="5">
         <v>4.3943368604429038E-2</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I165" s="7">
+        <v>0.10139015398133322</v>
+      </c>
+      <c r="J165" s="7">
+        <v>0.14651025021845634</v>
+      </c>
+      <c r="K165" s="7">
+        <v>0.11983522448680366</v>
+      </c>
+      <c r="L165" s="7">
+        <v>7.2974705562325506E-2</v>
+      </c>
+      <c r="M165" s="7">
+        <v>0.14992771274221683</v>
+      </c>
+      <c r="N165" s="7">
+        <v>7.313220958804717E-2</v>
+      </c>
+      <c r="O165" s="7">
+        <v>2.2850274412315907E-2</v>
+      </c>
+      <c r="P165" s="7">
+        <v>0.10437214732026111</v>
+      </c>
+      <c r="Q165" s="7">
+        <v>6.9012466261571467E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>43799</v>
       </c>
@@ -4283,8 +9267,38 @@
       <c r="G166" s="5">
         <v>4.7662353434382763E-2</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I166" s="7">
+        <v>0.10970824030317432</v>
+      </c>
+      <c r="J166" s="7">
+        <v>0.14718497786922882</v>
+      </c>
+      <c r="K166" s="7">
+        <v>0.12198437525587902</v>
+      </c>
+      <c r="L166" s="7">
+        <v>7.1676449906272574E-2</v>
+      </c>
+      <c r="M166" s="7">
+        <v>0.1447942639564197</v>
+      </c>
+      <c r="N166" s="7">
+        <v>7.1776874993811843E-2</v>
+      </c>
+      <c r="O166" s="7">
+        <v>2.2788951746124445E-2</v>
+      </c>
+      <c r="P166" s="7">
+        <v>0.10059397940212249</v>
+      </c>
+      <c r="Q166" s="7">
+        <v>6.7101294989366553E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>43830</v>
       </c>
@@ -4306,8 +9320,38 @@
       <c r="G167" s="5">
         <v>1.5959692318404273E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I167" s="7">
+        <v>0.12654830000899439</v>
+      </c>
+      <c r="J167" s="7">
+        <v>0.14814346587601959</v>
+      </c>
+      <c r="K167" s="7">
+        <v>0.12671515373654449</v>
+      </c>
+      <c r="L167" s="7">
+        <v>6.4147068198027457E-2</v>
+      </c>
+      <c r="M167" s="7">
+        <v>0.1504798375906016</v>
+      </c>
+      <c r="N167" s="7">
+        <v>7.8957277054183719E-2</v>
+      </c>
+      <c r="O167" s="7">
+        <v>2.2454997922236448E-2</v>
+      </c>
+      <c r="P167" s="7">
+        <v>0.1033831183875589</v>
+      </c>
+      <c r="Q167" s="7">
+        <v>6.5084675853423271E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>43861</v>
       </c>
@@ -4329,8 +9373,38 @@
       <c r="G168" s="5">
         <v>1.7019952482091059E-2</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I168" s="7">
+        <v>0.12728878560448634</v>
+      </c>
+      <c r="J168" s="7">
+        <v>0.14558142366312821</v>
+      </c>
+      <c r="K168" s="7">
+        <v>0.125406124585768</v>
+      </c>
+      <c r="L168" s="7">
+        <v>6.4329633315985013E-2</v>
+      </c>
+      <c r="M168" s="7">
+        <v>0.15268444086633454</v>
+      </c>
+      <c r="N168" s="7">
+        <v>7.728787255672262E-2</v>
+      </c>
+      <c r="O168" s="7">
+        <v>2.2590565160365294E-2</v>
+      </c>
+      <c r="P168" s="7">
+        <v>0.103187446153729</v>
+      </c>
+      <c r="Q168" s="7">
+        <v>6.4768643280232963E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>43890</v>
       </c>
@@ -4352,8 +9426,38 @@
       <c r="G169" s="5">
         <v>1.7683260726701219E-2</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I169" s="7">
+        <v>0.12261652526511102</v>
+      </c>
+      <c r="J169" s="7">
+        <v>0.13981354585488814</v>
+      </c>
+      <c r="K169" s="7">
+        <v>0.12401522886914498</v>
+      </c>
+      <c r="L169" s="7">
+        <v>6.446293393416265E-2</v>
+      </c>
+      <c r="M169" s="7">
+        <v>0.1547069891698149</v>
+      </c>
+      <c r="N169" s="7">
+        <v>7.9415279062254068E-2</v>
+      </c>
+      <c r="O169" s="7">
+        <v>2.3590249962940745E-2</v>
+      </c>
+      <c r="P169" s="7">
+        <v>0.10346979502356422</v>
+      </c>
+      <c r="Q169" s="7">
+        <v>6.723820075754057E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>43921</v>
       </c>
@@ -4375,8 +9479,38 @@
       <c r="G170" s="5">
         <v>-2.3058297725154563E-2</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" s="7">
+        <v>0.11418439462772022</v>
+      </c>
+      <c r="J170" s="7">
+        <v>0.13818076270394716</v>
+      </c>
+      <c r="K170" s="7">
+        <v>0.14648660991486928</v>
+      </c>
+      <c r="L170" s="7">
+        <v>6.7911636562883224E-2</v>
+      </c>
+      <c r="M170" s="7">
+        <v>0.16217607056491418</v>
+      </c>
+      <c r="N170" s="7">
+        <v>9.0254183488489334E-2</v>
+      </c>
+      <c r="O170" s="7">
+        <v>2.7223085206384931E-2</v>
+      </c>
+      <c r="P170" s="7">
+        <v>0.1093882041704104</v>
+      </c>
+      <c r="Q170" s="7">
+        <v>5.4906676593927214E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>43951</v>
       </c>
@@ -4398,8 +9532,38 @@
       <c r="G171" s="5">
         <v>-2.2208798178958239E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" s="7">
+        <v>0.12523748333738535</v>
+      </c>
+      <c r="J171" s="7">
+        <v>0.14444491857565986</v>
+      </c>
+      <c r="K171" s="7">
+        <v>0.150993272063914</v>
+      </c>
+      <c r="L171" s="7">
+        <v>6.7684271514206279E-2</v>
+      </c>
+      <c r="M171" s="7">
+        <v>0.15266410368583874</v>
+      </c>
+      <c r="N171" s="7">
+        <v>8.617161617711834E-2</v>
+      </c>
+      <c r="O171" s="7">
+        <v>2.7164056834685705E-2</v>
+      </c>
+      <c r="P171" s="7">
+        <v>0.10427112765529262</v>
+      </c>
+      <c r="Q171" s="7">
+        <v>5.5652283314705578E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>43982</v>
       </c>
@@ -4421,8 +9585,38 @@
       <c r="G172" s="5">
         <v>-1.8794006910563609E-2</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I172" s="7">
+        <v>0.12923007116025395</v>
+      </c>
+      <c r="J172" s="7">
+        <v>0.14394214670505037</v>
+      </c>
+      <c r="K172" s="7">
+        <v>0.15206911923716337</v>
+      </c>
+      <c r="L172" s="7">
+        <v>6.6449270622636197E-2</v>
+      </c>
+      <c r="M172" s="7">
+        <v>0.14752107626761327</v>
+      </c>
+      <c r="N172" s="7">
+        <v>8.2975680710592775E-2</v>
+      </c>
+      <c r="O172" s="7">
+        <v>2.833640385611343E-2</v>
+      </c>
+      <c r="P172" s="7">
+        <v>0.10155608087603554</v>
+      </c>
+      <c r="Q172" s="7">
+        <v>6.1023782775216098E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44012</v>
       </c>
@@ -4444,8 +9638,38 @@
       <c r="G173" s="5">
         <v>-1.0894521370857247E-2</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I173" s="7">
+        <v>0.1308070712066553</v>
+      </c>
+      <c r="J173" s="7">
+        <v>0.15000692892597206</v>
+      </c>
+      <c r="K173" s="7">
+        <v>0.14273561175830618</v>
+      </c>
+      <c r="L173" s="7">
+        <v>6.3247330239008206E-2</v>
+      </c>
+      <c r="M173" s="7">
+        <v>0.14636968334156286</v>
+      </c>
+      <c r="N173" s="7">
+        <v>8.4913041502439099E-2</v>
+      </c>
+      <c r="O173" s="7">
+        <v>2.9234861132569172E-2</v>
+      </c>
+      <c r="P173" s="7">
+        <v>9.92471507415775E-2</v>
+      </c>
+      <c r="Q173" s="7">
+        <v>6.1587920863093885E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44043</v>
       </c>
@@ -4467,8 +9691,38 @@
       <c r="G174" s="5">
         <v>-7.1417123349982762E-3</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I174" s="7">
+        <v>0.12959884607648831</v>
+      </c>
+      <c r="J174" s="7">
+        <v>0.15674197140039281</v>
+      </c>
+      <c r="K174" s="7">
+        <v>0.14399468913485072</v>
+      </c>
+      <c r="L174" s="7">
+        <v>6.2756056247059433E-2</v>
+      </c>
+      <c r="M174" s="7">
+        <v>0.14371110631661504</v>
+      </c>
+      <c r="N174" s="7">
+        <v>8.2815767423335032E-2</v>
+      </c>
+      <c r="O174" s="7">
+        <v>2.9078601564402951E-2</v>
+      </c>
+      <c r="P174" s="7">
+        <v>9.7163052198060609E-2</v>
+      </c>
+      <c r="Q174" s="7">
+        <v>6.0063636675708652E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44074</v>
       </c>
@@ -4490,8 +9744,38 @@
       <c r="G175" s="5">
         <v>-6.003144189525929E-3</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I175" s="7">
+        <v>0.13336513676610529</v>
+      </c>
+      <c r="J175" s="7">
+        <v>0.15973310490180831</v>
+      </c>
+      <c r="K175" s="7">
+        <v>0.14472285538834231</v>
+      </c>
+      <c r="L175" s="7">
+        <v>6.2684952505212374E-2</v>
+      </c>
+      <c r="M175" s="7">
+        <v>0.14234639606282001</v>
+      </c>
+      <c r="N175" s="7">
+        <v>8.153677139674699E-2</v>
+      </c>
+      <c r="O175" s="7">
+        <v>2.9508900724942597E-2</v>
+      </c>
+      <c r="P175" s="7">
+        <v>9.505671256887338E-2</v>
+      </c>
+      <c r="Q175" s="7">
+        <v>5.8253832343795699E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44104</v>
       </c>
@@ -4513,8 +9797,38 @@
       <c r="G176" s="5">
         <v>-3.7631203750020875E-3</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I176" s="7">
+        <v>0.12464003121071052</v>
+      </c>
+      <c r="J176" s="7">
+        <v>0.14805978852624488</v>
+      </c>
+      <c r="K176" s="7">
+        <v>0.13652841675173447</v>
+      </c>
+      <c r="L176" s="7">
+        <v>5.6773825393346397E-2</v>
+      </c>
+      <c r="M176" s="7">
+        <v>0.15862695793433754</v>
+      </c>
+      <c r="N176" s="7">
+        <v>0.10118775278556599</v>
+      </c>
+      <c r="O176" s="7">
+        <v>2.7701405686779586E-2</v>
+      </c>
+      <c r="P176" s="7">
+        <v>9.5005008158857013E-2</v>
+      </c>
+      <c r="Q176" s="7">
+        <v>6.0385338479059067E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44135</v>
       </c>
@@ -4536,8 +9850,38 @@
       <c r="G177" s="5">
         <v>-3.3787203653321369E-3</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I177" s="7">
+        <v>0.12426377330824698</v>
+      </c>
+      <c r="J177" s="7">
+        <v>0.14890263000456647</v>
+      </c>
+      <c r="K177" s="7">
+        <v>0.13676060878738691</v>
+      </c>
+      <c r="L177" s="7">
+        <v>5.7212176258199347E-2</v>
+      </c>
+      <c r="M177" s="7">
+        <v>0.15767144472317562</v>
+      </c>
+      <c r="N177" s="7">
+        <v>0.10246611399467649</v>
+      </c>
+      <c r="O177" s="7">
+        <v>2.7673680859689666E-2</v>
+      </c>
+      <c r="P177" s="7">
+        <v>9.4339472393736953E-2</v>
+      </c>
+      <c r="Q177" s="7">
+        <v>5.9883587034232293E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44165</v>
       </c>
@@ -4559,8 +9903,38 @@
       <c r="G178" s="5">
         <v>4.6917364597635078E-3</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I178" s="7">
+        <v>0.13293179764503332</v>
+      </c>
+      <c r="J178" s="7">
+        <v>0.15770415129755419</v>
+      </c>
+      <c r="K178" s="7">
+        <v>0.14038029747353231</v>
+      </c>
+      <c r="L178" s="7">
+        <v>5.6525499084736301E-2</v>
+      </c>
+      <c r="M178" s="7">
+        <v>0.15129106669585984</v>
+      </c>
+      <c r="N178" s="7">
+        <v>9.8731400063676533E-2</v>
+      </c>
+      <c r="O178" s="7">
+        <v>2.7063666569059005E-2</v>
+      </c>
+      <c r="P178" s="7">
+        <v>8.982148158536539E-2</v>
+      </c>
+      <c r="Q178" s="7">
+        <v>5.7495306105444927E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44196</v>
       </c>
@@ -4582,8 +9956,38 @@
       <c r="G179" s="5">
         <v>2.7375038530826484E-2</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I179" s="7">
+        <v>0.13349274936770641</v>
+      </c>
+      <c r="J179" s="7">
+        <v>0.15140538736090484</v>
+      </c>
+      <c r="K179" s="7">
+        <v>0.13033918021383373</v>
+      </c>
+      <c r="L179" s="7">
+        <v>5.2877216205362648E-2</v>
+      </c>
+      <c r="M179" s="7">
+        <v>0.13692657200754879</v>
+      </c>
+      <c r="N179" s="7">
+        <v>0.10627759327404916</v>
+      </c>
+      <c r="O179" s="7">
+        <v>2.7074257997434244E-2</v>
+      </c>
+      <c r="P179" s="7">
+        <v>8.9265448588009375E-2</v>
+      </c>
+      <c r="Q179" s="7">
+        <v>5.7082550191338455E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44227</v>
       </c>
@@ -4605,8 +10009,38 @@
       <c r="G180" s="5">
         <v>4.0439419888562672E-2</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" s="7">
+        <v>0.13329382996679406</v>
+      </c>
+      <c r="J180" s="7">
+        <v>0.15540486611710744</v>
+      </c>
+      <c r="K180" s="7">
+        <v>0.11947899844384047</v>
+      </c>
+      <c r="L180" s="7">
+        <v>5.2970828928793935E-2</v>
+      </c>
+      <c r="M180" s="7">
+        <v>0.13786906390743509</v>
+      </c>
+      <c r="N180" s="7">
+        <v>0.10927484458090307</v>
+      </c>
+      <c r="O180" s="7">
+        <v>2.6686992682978163E-2</v>
+      </c>
+      <c r="P180" s="7">
+        <v>8.9888019049575288E-2</v>
+      </c>
+      <c r="Q180" s="7">
+        <v>5.512438665273918E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44255</v>
       </c>
@@ -4628,8 +10062,38 @@
       <c r="G181" s="5">
         <v>3.4275652617366918E-2</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I181" s="7">
+        <v>0.13531272445874987</v>
+      </c>
+      <c r="J181" s="7">
+        <v>0.15545849487574792</v>
+      </c>
+      <c r="K181" s="7">
+        <v>0.12302155434931891</v>
+      </c>
+      <c r="L181" s="7">
+        <v>5.2931941499500756E-2</v>
+      </c>
+      <c r="M181" s="7">
+        <v>0.13585968797603704</v>
+      </c>
+      <c r="N181" s="7">
+        <v>0.10893161959874861</v>
+      </c>
+      <c r="O181" s="7">
+        <v>2.6399179133859616E-2</v>
+      </c>
+      <c r="P181" s="7">
+        <v>8.9050081366084097E-2</v>
+      </c>
+      <c r="Q181" s="7">
+        <v>5.8165400765256461E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44286</v>
       </c>
@@ -4651,8 +10115,38 @@
       <c r="G182" s="5">
         <v>3.9694199759149895E-2</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I182" s="7">
+        <v>0.1395274081402606</v>
+      </c>
+      <c r="J182" s="7">
+        <v>0.14567719943943061</v>
+      </c>
+      <c r="K182" s="7">
+        <v>0.12394350176376726</v>
+      </c>
+      <c r="L182" s="7">
+        <v>5.5279974371932265E-2</v>
+      </c>
+      <c r="M182" s="7">
+        <v>0.1258921119404158</v>
+      </c>
+      <c r="N182" s="7">
+        <v>0.11590338128085137</v>
+      </c>
+      <c r="O182" s="7">
+        <v>2.6900732415338292E-2</v>
+      </c>
+      <c r="P182" s="7">
+        <v>8.8148692682505844E-2</v>
+      </c>
+      <c r="Q182" s="7">
+        <v>6.2553951716017672E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44316</v>
       </c>
@@ -4674,8 +10168,38 @@
       <c r="G183" s="5">
         <v>3.7403521121707285E-2</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I183" s="7">
+        <v>0.14256920081796678</v>
+      </c>
+      <c r="J183" s="7">
+        <v>0.14780713482688027</v>
+      </c>
+      <c r="K183" s="7">
+        <v>0.12713494763176142</v>
+      </c>
+      <c r="L183" s="7">
+        <v>5.4884190494596016E-2</v>
+      </c>
+      <c r="M183" s="7">
+        <v>0.12368754786958909</v>
+      </c>
+      <c r="N183" s="7">
+        <v>0.11595351101455974</v>
+      </c>
+      <c r="O183" s="7">
+        <v>2.6715929538350325E-2</v>
+      </c>
+      <c r="P183" s="7">
+        <v>8.7079153959410724E-2</v>
+      </c>
+      <c r="Q183" s="7">
+        <v>6.1067754600173621E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44347</v>
       </c>
@@ -4697,8 +10221,38 @@
       <c r="G184" s="5">
         <v>4.7325252604423211E-2</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I184" s="7">
+        <v>0.14208910290037402</v>
+      </c>
+      <c r="J184" s="7">
+        <v>0.15074229658496913</v>
+      </c>
+      <c r="K184" s="7">
+        <v>0.12706071713809905</v>
+      </c>
+      <c r="L184" s="7">
+        <v>5.5698583988029897E-2</v>
+      </c>
+      <c r="M184" s="7">
+        <v>0.11504519195561003</v>
+      </c>
+      <c r="N184" s="7">
+        <v>0.11300046772961575</v>
+      </c>
+      <c r="O184" s="7">
+        <v>2.6853428168961867E-2</v>
+      </c>
+      <c r="P184" s="7">
+        <v>8.7136794182576791E-2</v>
+      </c>
+      <c r="Q184" s="7">
+        <v>5.9299267696789733E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44377</v>
       </c>
@@ -4720,8 +10274,38 @@
       <c r="G185" s="5">
         <v>6.5708972015172659E-2</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I185" s="7">
+        <v>0.14093337971761105</v>
+      </c>
+      <c r="J185" s="7">
+        <v>0.13885842725202835</v>
+      </c>
+      <c r="K185" s="7">
+        <v>0.12380067317696332</v>
+      </c>
+      <c r="L185" s="7">
+        <v>5.3854483103831549E-2</v>
+      </c>
+      <c r="M185" s="7">
+        <v>0.11421572060547343</v>
+      </c>
+      <c r="N185" s="7">
+        <v>0.11898772055337141</v>
+      </c>
+      <c r="O185" s="7">
+        <v>1.9671600583725034E-2</v>
+      </c>
+      <c r="P185" s="7">
+        <v>8.7464087410298999E-2</v>
+      </c>
+      <c r="Q185" s="7">
+        <v>6.6415456612770887E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44408</v>
       </c>
@@ -4743,8 +10327,38 @@
       <c r="G186" s="5">
         <v>6.7725308383517369E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I186" s="7">
+        <v>0.14413849909894505</v>
+      </c>
+      <c r="J186" s="7">
+        <v>0.1335884826997793</v>
+      </c>
+      <c r="K186" s="7">
+        <v>0.1273175977614964</v>
+      </c>
+      <c r="L186" s="7">
+        <v>5.073499479666551E-2</v>
+      </c>
+      <c r="M186" s="7">
+        <v>0.11301870244988263</v>
+      </c>
+      <c r="N186" s="7">
+        <v>0.11674022698017937</v>
+      </c>
+      <c r="O186" s="7">
+        <v>1.9186689633259625E-2</v>
+      </c>
+      <c r="P186" s="7">
+        <v>8.9727990077304601E-2</v>
+      </c>
+      <c r="Q186" s="7">
+        <v>6.6695752034228284E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44439</v>
       </c>
@@ -4766,8 +10380,38 @@
       <c r="G187" s="5">
         <v>6.0883351771362761E-2</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I187" s="7">
+        <v>0.15365309569050989</v>
+      </c>
+      <c r="J187" s="7">
+        <v>0.13538058072938589</v>
+      </c>
+      <c r="K187" s="7">
+        <v>0.13009494308493638</v>
+      </c>
+      <c r="L187" s="7">
+        <v>5.0758243339113829E-2</v>
+      </c>
+      <c r="M187" s="7">
+        <v>0.11152788305145285</v>
+      </c>
+      <c r="N187" s="7">
+        <v>0.11818400667664399</v>
+      </c>
+      <c r="O187" s="7">
+        <v>1.893012801316226E-2</v>
+      </c>
+      <c r="P187" s="7">
+        <v>8.773570176959615E-2</v>
+      </c>
+      <c r="Q187" s="7">
+        <v>6.2786272800875037E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44469</v>
       </c>
@@ -4789,8 +10433,38 @@
       <c r="G188" s="5">
         <v>8.7546290020133311E-2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I188" s="7">
+        <v>0.14805292316918897</v>
+      </c>
+      <c r="J188" s="7">
+        <v>0.12892273117656369</v>
+      </c>
+      <c r="K188" s="7">
+        <v>0.12363349300088018</v>
+      </c>
+      <c r="L188" s="7">
+        <v>4.7309735169396461E-2</v>
+      </c>
+      <c r="M188" s="7">
+        <v>0.10458508632762645</v>
+      </c>
+      <c r="N188" s="7">
+        <v>0.1200196562080013</v>
+      </c>
+      <c r="O188" s="7">
+        <v>1.8858412698658695E-2</v>
+      </c>
+      <c r="P188" s="7">
+        <v>9.0416542393334576E-2</v>
+      </c>
+      <c r="Q188" s="7">
+        <v>6.4827000726798506E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44500</v>
       </c>
@@ -4812,8 +10486,38 @@
       <c r="G189" s="5">
         <v>8.6267100118278123E-2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" s="7">
+        <v>0.15280055031622644</v>
+      </c>
+      <c r="J189" s="7">
+        <v>0.12975895754349173</v>
+      </c>
+      <c r="K189" s="7">
+        <v>0.12637251978227568</v>
+      </c>
+      <c r="L189" s="7">
+        <v>4.7637844136194284E-2</v>
+      </c>
+      <c r="M189" s="7">
+        <v>0.1038577537208471</v>
+      </c>
+      <c r="N189" s="7">
+        <v>0.12063000982057338</v>
+      </c>
+      <c r="O189" s="7">
+        <v>1.8486985256012521E-2</v>
+      </c>
+      <c r="P189" s="7">
+        <v>8.7939119549471589E-2</v>
+      </c>
+      <c r="Q189" s="7">
+        <v>6.1338507438988596E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44530</v>
       </c>
@@ -4835,8 +10539,38 @@
       <c r="G190" s="5">
         <v>8.7050179989494728E-2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I190" s="7">
+        <v>0.14811760170134639</v>
+      </c>
+      <c r="J190" s="7">
+        <v>0.12947450864819288</v>
+      </c>
+      <c r="K190" s="7">
+        <v>0.12266952400835072</v>
+      </c>
+      <c r="L190" s="7">
+        <v>4.8476463685562396E-2</v>
+      </c>
+      <c r="M190" s="7">
+        <v>0.10667282718906071</v>
+      </c>
+      <c r="N190" s="7">
+        <v>0.12604396870818649</v>
+      </c>
+      <c r="O190" s="7">
+        <v>1.8734234153022652E-2</v>
+      </c>
+      <c r="P190" s="7">
+        <v>8.712079988849207E-2</v>
+      </c>
+      <c r="Q190" s="7">
+        <v>5.9250111386348135E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44561</v>
       </c>
@@ -4858,8 +10592,38 @@
       <c r="G191" s="5">
         <v>6.0678848632354461E-2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I191" s="7">
+        <v>0.15208389869088959</v>
+      </c>
+      <c r="J191" s="7">
+        <v>0.13062559490849326</v>
+      </c>
+      <c r="K191" s="7">
+        <v>0.11936677702175021</v>
+      </c>
+      <c r="L191" s="7">
+        <v>4.8615263284131231E-2</v>
+      </c>
+      <c r="M191" s="7">
+        <v>0.10798006125112657</v>
+      </c>
+      <c r="N191" s="7">
+        <v>0.142266436049624</v>
+      </c>
+      <c r="O191" s="7">
+        <v>1.2909883559215343E-2</v>
+      </c>
+      <c r="P191" s="7">
+        <v>9.2489600602513086E-2</v>
+      </c>
+      <c r="Q191" s="7">
+        <v>6.045486585599117E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44592</v>
       </c>
@@ -4881,8 +10645,38 @@
       <c r="G192" s="5">
         <v>5.8148147932799224E-2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I192" s="7">
+        <v>0.13834305667165961</v>
+      </c>
+      <c r="J192" s="7">
+        <v>0.12803859511938576</v>
+      </c>
+      <c r="K192" s="7">
+        <v>0.11800234854544968</v>
+      </c>
+      <c r="L192" s="7">
+        <v>5.0692180040982776E-2</v>
+      </c>
+      <c r="M192" s="7">
+        <v>0.11245285533525314</v>
+      </c>
+      <c r="N192" s="7">
+        <v>0.14812282997866608</v>
+      </c>
+      <c r="O192" s="7">
+        <v>1.3157794809760795E-2</v>
+      </c>
+      <c r="P192" s="7">
+        <v>9.7887570299941246E-2</v>
+      </c>
+      <c r="Q192" s="7">
+        <v>6.1122536683506375E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44620</v>
       </c>
@@ -4904,8 +10698,38 @@
       <c r="G193" s="5">
         <v>5.3275131977478109E-2</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I193" s="7">
+        <v>0.14254922121513533</v>
+      </c>
+      <c r="J193" s="7">
+        <v>0.11844453440189731</v>
+      </c>
+      <c r="K193" s="7">
+        <v>0.12291769252999336</v>
+      </c>
+      <c r="L193" s="7">
+        <v>4.8358034023118855E-2</v>
+      </c>
+      <c r="M193" s="7">
+        <v>0.11387545771800926</v>
+      </c>
+      <c r="N193" s="7">
+        <v>0.15181832907310119</v>
+      </c>
+      <c r="O193" s="7">
+        <v>1.3285131175194217E-2</v>
+      </c>
+      <c r="P193" s="7">
+        <v>9.8584542610010192E-2</v>
+      </c>
+      <c r="Q193" s="7">
+        <v>6.2120558033527978E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44651</v>
       </c>
@@ -4927,8 +10751,38 @@
       <c r="G194" s="5">
         <v>3.8845440085173884E-2</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I194" s="7">
+        <v>0.14901500666721368</v>
+      </c>
+      <c r="J194" s="7">
+        <v>0.11164349582955657</v>
+      </c>
+      <c r="K194" s="7">
+        <v>0.13400899097008806</v>
+      </c>
+      <c r="L194" s="7">
+        <v>4.8384435419238293E-2</v>
+      </c>
+      <c r="M194" s="7">
+        <v>0.10889839743992273</v>
+      </c>
+      <c r="N194" s="7">
+        <v>0.14954557160268653</v>
+      </c>
+      <c r="O194" s="7">
+        <v>1.3262813110488592E-2</v>
+      </c>
+      <c r="P194" s="7">
+        <v>0.1008780481508344</v>
+      </c>
+      <c r="Q194" s="7">
+        <v>7.0412822877638323E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44681</v>
       </c>
@@ -4950,8 +10804,38 @@
       <c r="G195" s="5">
         <v>3.6365689034086775E-2</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" s="7">
+        <v>0.1365768814037574</v>
+      </c>
+      <c r="J195" s="7">
+        <v>0.10848820550804045</v>
+      </c>
+      <c r="K195" s="7">
+        <v>0.13470364979472357</v>
+      </c>
+      <c r="L195" s="7">
+        <v>5.0545049226279025E-2</v>
+      </c>
+      <c r="M195" s="7">
+        <v>0.11287201071004546</v>
+      </c>
+      <c r="N195" s="7">
+        <v>0.15630807337253902</v>
+      </c>
+      <c r="O195" s="7">
+        <v>1.3732370359788769E-2</v>
+      </c>
+      <c r="P195" s="7">
+        <v>0.10373152329065277</v>
+      </c>
+      <c r="Q195" s="7">
+        <v>7.0325883249286278E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44712</v>
       </c>
@@ -4973,8 +10857,38 @@
       <c r="G196" s="5">
         <v>2.4407288070930469E-2</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I196" s="7">
+        <v>0.13641662283989944</v>
+      </c>
+      <c r="J196" s="7">
+        <v>0.11080258596084788</v>
+      </c>
+      <c r="K196" s="7">
+        <v>0.13823671400021409</v>
+      </c>
+      <c r="L196" s="7">
+        <v>5.0703726072956083E-2</v>
+      </c>
+      <c r="M196" s="7">
+        <v>0.11443029194202863</v>
+      </c>
+      <c r="N196" s="7">
+        <v>0.15880594944489834</v>
+      </c>
+      <c r="O196" s="7">
+        <v>1.4405518575374429E-2</v>
+      </c>
+      <c r="P196" s="7">
+        <v>0.1048535234373774</v>
+      </c>
+      <c r="Q196" s="7">
+        <v>6.9351902165267265E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44742</v>
       </c>
@@ -4996,8 +10910,38 @@
       <c r="G197" s="5">
         <v>5.490090612367296E-2</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I197" s="7">
+        <v>0.16460215468800263</v>
+      </c>
+      <c r="J197" s="7">
+        <v>8.9701931094004067E-2</v>
+      </c>
+      <c r="K197" s="7">
+        <v>0.11101448975062253</v>
+      </c>
+      <c r="L197" s="7">
+        <v>4.9861523535256309E-2</v>
+      </c>
+      <c r="M197" s="7">
+        <v>0.10948607337441905</v>
+      </c>
+      <c r="N197" s="7">
+        <v>0.14894845059726064</v>
+      </c>
+      <c r="O197" s="7">
+        <v>1.3826948424348786E-2</v>
+      </c>
+      <c r="P197" s="7">
+        <v>0.10671194118084054</v>
+      </c>
+      <c r="Q197" s="7">
+        <v>7.1267048166853447E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44773</v>
       </c>
@@ -5019,8 +10963,38 @@
       <c r="G198" s="5">
         <v>6.1339739497328225E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I198" s="7">
+        <v>0.17320948023462407</v>
+      </c>
+      <c r="J198" s="7">
+        <v>9.0070591988921533E-2</v>
+      </c>
+      <c r="K198" s="7">
+        <v>0.11262959697851434</v>
+      </c>
+      <c r="L198" s="7">
+        <v>3.4956813698464095E-2</v>
+      </c>
+      <c r="M198" s="7">
+        <v>0.10886246950565273</v>
+      </c>
+      <c r="N198" s="7">
+        <v>0.14642653098050926</v>
+      </c>
+      <c r="O198" s="7">
+        <v>1.3877635554362657E-2</v>
+      </c>
+      <c r="P198" s="7">
+        <v>0.10459823794281049</v>
+      </c>
+      <c r="Q198" s="7">
+        <v>7.7306021865638189E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44804</v>
       </c>
@@ -5042,8 +11016,38 @@
       <c r="G199" s="5">
         <v>6.6675329452961521E-2</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I199" s="7">
+        <v>0.16925502646489635</v>
+      </c>
+      <c r="J199" s="7">
+        <v>8.8772205937496948E-2</v>
+      </c>
+      <c r="K199" s="7">
+        <v>0.11128706230057626</v>
+      </c>
+      <c r="L199" s="7">
+        <v>3.5219679731825659E-2</v>
+      </c>
+      <c r="M199" s="7">
+        <v>0.10837194389238601</v>
+      </c>
+      <c r="N199" s="7">
+        <v>0.14692164103654287</v>
+      </c>
+      <c r="O199" s="7">
+        <v>1.37063884071894E-2</v>
+      </c>
+      <c r="P199" s="7">
+        <v>0.10375561549636964</v>
+      </c>
+      <c r="Q199" s="7">
+        <v>7.9347709282280826E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44834</v>
       </c>
@@ -5065,8 +11069,38 @@
       <c r="G200" s="5">
         <v>7.6971012902960448E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I200" s="7">
+        <v>0.15858761141131772</v>
+      </c>
+      <c r="J200" s="7">
+        <v>8.4184033266369404E-2</v>
+      </c>
+      <c r="K200" s="7">
+        <v>0.11064356646425387</v>
+      </c>
+      <c r="L200" s="7">
+        <v>3.684788227686267E-2</v>
+      </c>
+      <c r="M200" s="7">
+        <v>0.10985492901947641</v>
+      </c>
+      <c r="N200" s="7">
+        <v>0.14794518449713198</v>
+      </c>
+      <c r="O200" s="7">
+        <v>1.4043831561157393E-2</v>
+      </c>
+      <c r="P200" s="7">
+        <v>0.10551029255042767</v>
+      </c>
+      <c r="Q200" s="7">
+        <v>7.8637831079512457E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44865</v>
       </c>
@@ -5088,8 +11122,38 @@
       <c r="G201" s="5">
         <v>7.4025982381027824E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" s="7">
+        <v>0.16165403026549541</v>
+      </c>
+      <c r="J201" s="7">
+        <v>8.3285626479627478E-2</v>
+      </c>
+      <c r="K201" s="7">
+        <v>0.1121018495547636</v>
+      </c>
+      <c r="L201" s="7">
+        <v>3.6174776475268844E-2</v>
+      </c>
+      <c r="M201" s="7">
+        <v>0.10998266243735967</v>
+      </c>
+      <c r="N201" s="7">
+        <v>0.14912800701258727</v>
+      </c>
+      <c r="O201" s="7">
+        <v>1.3823850078242108E-2</v>
+      </c>
+      <c r="P201" s="7">
+        <v>0.10604907120696287</v>
+      </c>
+      <c r="Q201" s="7">
+        <v>7.804864373031857E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44895</v>
       </c>
@@ -5111,8 +11175,38 @@
       <c r="G202" s="5">
         <v>7.3150034894304619E-2</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I202" s="7">
+        <v>0.16093303470757661</v>
+      </c>
+      <c r="J202" s="7">
+        <v>8.645980233288296E-2</v>
+      </c>
+      <c r="K202" s="7">
+        <v>0.1129070751515609</v>
+      </c>
+      <c r="L202" s="7">
+        <v>3.5408481384514003E-2</v>
+      </c>
+      <c r="M202" s="7">
+        <v>0.10897954736896058</v>
+      </c>
+      <c r="N202" s="7">
+        <v>0.14701869763183179</v>
+      </c>
+      <c r="O202" s="7">
+        <v>1.3588154511374037E-2</v>
+      </c>
+      <c r="P202" s="7">
+        <v>0.10625156381488367</v>
+      </c>
+      <c r="Q202" s="7">
+        <v>7.9081443963476078E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44926</v>
       </c>
@@ -5134,8 +11228,38 @@
       <c r="G203" s="5">
         <v>5.5934252475100046E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I203" s="7">
+        <v>0.14858424989335495</v>
+      </c>
+      <c r="J203" s="7">
+        <v>8.9056680592639922E-2</v>
+      </c>
+      <c r="K203" s="7">
+        <v>0.11239059951548584</v>
+      </c>
+      <c r="L203" s="7">
+        <v>3.9764269362326028E-2</v>
+      </c>
+      <c r="M203" s="7">
+        <v>0.11607027055304361</v>
+      </c>
+      <c r="N203" s="7">
+        <v>0.15167868293240269</v>
+      </c>
+      <c r="O203" s="7">
+        <v>1.4247624075088129E-2</v>
+      </c>
+      <c r="P203" s="7">
+        <v>0.11143204076023239</v>
+      </c>
+      <c r="Q203" s="7">
+        <v>7.9836598663342181E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44957</v>
       </c>
@@ -5157,8 +11281,38 @@
       <c r="G204" s="5">
         <v>5.3441709407236616E-2</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I204" s="7">
+        <v>0.15369914135827628</v>
+      </c>
+      <c r="J204" s="7">
+        <v>9.2936467062354103E-2</v>
+      </c>
+      <c r="K204" s="7">
+        <v>0.11365151523222077</v>
+      </c>
+      <c r="L204" s="7">
+        <v>3.8984169668353996E-2</v>
+      </c>
+      <c r="M204" s="7">
+        <v>0.11486150397971664</v>
+      </c>
+      <c r="N204" s="7">
+        <v>0.14919057863894478</v>
+      </c>
+      <c r="O204" s="7">
+        <v>1.3890350114861035E-2</v>
+      </c>
+      <c r="P204" s="7">
+        <v>0.11034250569790707</v>
+      </c>
+      <c r="Q204" s="7">
+        <v>7.8630552641127047E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44985</v>
       </c>
@@ -5180,8 +11334,38 @@
       <c r="G205" s="5">
         <v>5.6232299303556332E-2</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I205" s="7">
+        <v>0.15053657115275734</v>
+      </c>
+      <c r="J205" s="7">
+        <v>9.0696812132860488E-2</v>
+      </c>
+      <c r="K205" s="7">
+        <v>0.11303136050305536</v>
+      </c>
+      <c r="L205" s="7">
+        <v>3.8481892084955775E-2</v>
+      </c>
+      <c r="M205" s="7">
+        <v>0.11523527968471688</v>
+      </c>
+      <c r="N205" s="7">
+        <v>0.14982984855587156</v>
+      </c>
+      <c r="O205" s="7">
+        <v>1.3951920638259252E-2</v>
+      </c>
+      <c r="P205" s="7">
+        <v>0.10981131580591737</v>
+      </c>
+      <c r="Q205" s="7">
+        <v>8.1727150632811205E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>45016</v>
       </c>
@@ -5203,8 +11387,38 @@
       <c r="G206" s="5">
         <v>4.7226618505848347E-2</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I206" s="7">
+        <v>0.15146640153078247</v>
+      </c>
+      <c r="J206" s="7">
+        <v>9.1582245166498669E-2</v>
+      </c>
+      <c r="K206" s="7">
+        <v>0.1179493187154305</v>
+      </c>
+      <c r="L206" s="7">
+        <v>3.8623585290853545E-2</v>
+      </c>
+      <c r="M206" s="7">
+        <v>0.11637541968585488</v>
+      </c>
+      <c r="N206" s="7">
+        <v>0.15186443458294882</v>
+      </c>
+      <c r="O206" s="7">
+        <v>1.4204333161642546E-2</v>
+      </c>
+      <c r="P206" s="7">
+        <v>0.10922962125004028</v>
+      </c>
+      <c r="Q206" s="7">
+        <v>7.9695258514935002E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>45046</v>
       </c>
@@ -5226,8 +11440,38 @@
       <c r="G207" s="5">
         <v>4.6075300511812536E-2</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I207" s="7">
+        <v>0.1508757089750983</v>
+      </c>
+      <c r="J207" s="7">
+        <v>9.0685143035911242E-2</v>
+      </c>
+      <c r="K207" s="7">
+        <v>0.11852636088686964</v>
+      </c>
+      <c r="L207" s="7">
+        <v>3.9474868867216399E-2</v>
+      </c>
+      <c r="M207" s="7">
+        <v>0.11734851738040483</v>
+      </c>
+      <c r="N207" s="7">
+        <v>0.15303637783194515</v>
+      </c>
+      <c r="O207" s="7">
+        <v>1.4185753619929327E-2</v>
+      </c>
+      <c r="P207" s="7">
+        <v>0.10802279475233686</v>
+      </c>
+      <c r="Q207" s="7">
+        <v>7.9492046984906251E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>45077</v>
       </c>
@@ -5249,8 +11493,38 @@
       <c r="G208" s="5">
         <v>4.1841132779741538E-2</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I208" s="7">
+        <v>0.15230902158509108</v>
+      </c>
+      <c r="J208" s="7">
+        <v>9.0679652282716044E-2</v>
+      </c>
+      <c r="K208" s="7">
+        <v>0.12044447890781559</v>
+      </c>
+      <c r="L208" s="7">
+        <v>3.88355674745837E-2</v>
+      </c>
+      <c r="M208" s="7">
+        <v>0.11665714834379295</v>
+      </c>
+      <c r="N208" s="7">
+        <v>0.15492249763226904</v>
+      </c>
+      <c r="O208" s="7">
+        <v>1.4568024392315462E-2</v>
+      </c>
+      <c r="P208" s="7">
+        <v>0.10916517317101572</v>
+      </c>
+      <c r="Q208" s="7">
+        <v>7.9173821160724453E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>45107</v>
       </c>
@@ -5272,8 +11546,38 @@
       <c r="G209" s="5">
         <v>4.5379061667797219E-2</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I209" s="7">
+        <v>0.15390100544316929</v>
+      </c>
+      <c r="J209" s="7">
+        <v>9.1598351422014404E-2</v>
+      </c>
+      <c r="K209" s="7">
+        <v>0.11659179718028023</v>
+      </c>
+      <c r="L209" s="7">
+        <v>3.8592474786027578E-2</v>
+      </c>
+      <c r="M209" s="7">
+        <v>0.11717355447558184</v>
+      </c>
+      <c r="N209" s="7">
+        <v>0.15300389156504379</v>
+      </c>
+      <c r="O209" s="7">
+        <v>1.4546870913410224E-2</v>
+      </c>
+      <c r="P209" s="7">
+        <v>0.11038147896536434</v>
+      </c>
+      <c r="Q209" s="7">
+        <v>7.8869790055961897E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>45138</v>
       </c>
@@ -5295,8 +11599,38 @@
       <c r="G210" s="5">
         <v>4.5126564801056882E-2</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I210" s="7">
+        <v>0.15612295487884756</v>
+      </c>
+      <c r="J210" s="7">
+        <v>9.4786319845699268E-2</v>
+      </c>
+      <c r="K210" s="7">
+        <v>0.11630456132589938</v>
+      </c>
+      <c r="L210" s="7">
+        <v>3.8334289008712094E-2</v>
+      </c>
+      <c r="M210" s="7">
+        <v>0.11554235221457025</v>
+      </c>
+      <c r="N210" s="7">
+        <v>0.15225236884753085</v>
+      </c>
+      <c r="O210" s="7">
+        <v>1.4171780016983717E-2</v>
+      </c>
+      <c r="P210" s="7">
+        <v>0.11061482051176764</v>
+      </c>
+      <c r="Q210" s="7">
+        <v>7.7416944076093064E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>45169</v>
       </c>
@@ -5318,8 +11652,38 @@
       <c r="G211" s="5">
         <v>4.3383563258121212E-2</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I211" s="7">
+        <v>0.15203053350187473</v>
+      </c>
+      <c r="J211" s="7">
+        <v>9.2181529678722965E-2</v>
+      </c>
+      <c r="K211" s="7">
+        <v>0.1187135336306421</v>
+      </c>
+      <c r="L211" s="7">
+        <v>3.8282502421876176E-2</v>
+      </c>
+      <c r="M211" s="7">
+        <v>0.11673295238556608</v>
+      </c>
+      <c r="N211" s="7">
+        <v>0.1545120768118213</v>
+      </c>
+      <c r="O211" s="7">
+        <v>1.4481112938221609E-2</v>
+      </c>
+      <c r="P211" s="7">
+        <v>0.11226389619128728</v>
+      </c>
+      <c r="Q211" s="7">
+        <v>7.6388306047885782E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>45199</v>
       </c>
@@ -5341,8 +11705,38 @@
       <c r="G212" s="5">
         <v>2.9894843920977965E-2</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I212" s="7">
+        <v>0.14944372038489653</v>
+      </c>
+      <c r="J212" s="7">
+        <v>9.8123322608431221E-2</v>
+      </c>
+      <c r="K212" s="7">
+        <v>0.11757850909435111</v>
+      </c>
+      <c r="L212" s="7">
+        <v>4.3289628033412082E-2</v>
+      </c>
+      <c r="M212" s="7">
+        <v>0.12082415112199592</v>
+      </c>
+      <c r="N212" s="7">
+        <v>0.15526638226480197</v>
+      </c>
+      <c r="O212" s="7">
+        <v>1.4805222962143681E-2</v>
+      </c>
+      <c r="P212" s="7">
+        <v>0.11349846757975972</v>
+      </c>
+      <c r="Q212" s="7">
+        <v>7.6784836399087619E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>45230</v>
       </c>
@@ -5364,8 +11758,38 @@
       <c r="G213" s="5">
         <v>2.7982798168830168E-2</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I213" s="7">
+        <v>0.1456730095558682</v>
+      </c>
+      <c r="J213" s="7">
+        <v>9.5553896808768787E-2</v>
+      </c>
+      <c r="K213" s="7">
+        <v>0.11712260850786338</v>
+      </c>
+      <c r="L213" s="7">
+        <v>4.3677818048227922E-2</v>
+      </c>
+      <c r="M213" s="7">
+        <v>0.1228108042379597</v>
+      </c>
+      <c r="N213" s="7">
+        <v>0.15900154535119027</v>
+      </c>
+      <c r="O213" s="7">
+        <v>1.495829544677065E-2</v>
+      </c>
+      <c r="P213" s="7">
+        <v>0.11507759634761917</v>
+      </c>
+      <c r="Q213" s="7">
+        <v>7.7596950450720723E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>45260</v>
       </c>
@@ -5387,8 +11811,38 @@
       <c r="G214" s="5">
         <v>4.1985815714675925E-2</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I214" s="7">
+        <v>0.14844947462725902</v>
+      </c>
+      <c r="J214" s="7">
+        <v>8.8589261545644823E-2</v>
+      </c>
+      <c r="K214" s="7">
+        <v>0.11953803979792396</v>
+      </c>
+      <c r="L214" s="7">
+        <v>4.4419839786656451E-2</v>
+      </c>
+      <c r="M214" s="7">
+        <v>0.11885552075925759</v>
+      </c>
+      <c r="N214" s="7">
+        <v>0.15390921770577412</v>
+      </c>
+      <c r="O214" s="7">
+        <v>1.3724362625240601E-2</v>
+      </c>
+      <c r="P214" s="7">
+        <v>0.11166162335495032</v>
+      </c>
+      <c r="Q214" s="7">
+        <v>7.7984379951153912E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>45291</v>
       </c>
@@ -5410,8 +11864,38 @@
       <c r="G215" s="5">
         <v>2.9675841788485383E-2</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215" s="7">
+        <v>0.14551577946686242</v>
+      </c>
+      <c r="J215" s="7">
+        <v>9.2769512548928929E-2</v>
+      </c>
+      <c r="K215" s="7">
+        <v>0.11383927879569983</v>
+      </c>
+      <c r="L215" s="7">
+        <v>4.6296161928288455E-2</v>
+      </c>
+      <c r="M215" s="7">
+        <v>0.12260056461430265</v>
+      </c>
+      <c r="N215" s="7">
+        <v>0.16148199197660029</v>
+      </c>
+      <c r="O215" s="7">
+        <v>1.460692247055923E-2</v>
+      </c>
+      <c r="P215" s="7">
+        <v>0.11113534838487067</v>
+      </c>
+      <c r="Q215" s="7">
+        <v>7.4594641621896676E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>45322</v>
       </c>
@@ -5433,8 +11917,38 @@
       <c r="G216" s="5">
         <v>3.0226322411212574E-2</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216" s="7">
+        <v>0.14567265725733028</v>
+      </c>
+      <c r="J216" s="7">
+        <v>9.2057618838031388E-2</v>
+      </c>
+      <c r="K216" s="7">
+        <v>0.11380180820033151</v>
+      </c>
+      <c r="L216" s="7">
+        <v>4.6940220126249786E-2</v>
+      </c>
+      <c r="M216" s="7">
+        <v>0.12547487626055009</v>
+      </c>
+      <c r="N216" s="7">
+        <v>0.16418730688725555</v>
+      </c>
+      <c r="O216" s="7">
+        <v>1.3850547402824468E-2</v>
+      </c>
+      <c r="P216" s="7">
+        <v>0.10815779893281183</v>
+      </c>
+      <c r="Q216" s="7">
+        <v>7.1798284886232203E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>45351</v>
       </c>
@@ -5456,8 +11970,38 @@
       <c r="G217" s="5">
         <v>3.1407448892978536E-2</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217" s="7">
+        <v>0.14925596152531939</v>
+      </c>
+      <c r="J217" s="7">
+        <v>9.2316530207471936E-2</v>
+      </c>
+      <c r="K217" s="7">
+        <v>0.11410727043211216</v>
+      </c>
+      <c r="L217" s="7">
+        <v>4.6317408010364339E-2</v>
+      </c>
+      <c r="M217" s="7">
+        <v>0.12345867712460173</v>
+      </c>
+      <c r="N217" s="7">
+        <v>0.16293924572189969</v>
+      </c>
+      <c r="O217" s="7">
+        <v>1.3000653410956145E-2</v>
+      </c>
+      <c r="P217" s="7">
+        <v>0.1073726824177179</v>
+      </c>
+      <c r="Q217" s="7">
+        <v>7.3781796373633454E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>45382</v>
       </c>
@@ -5479,8 +12023,38 @@
       <c r="G218" s="5">
         <v>4.2606587284423937E-2</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I218" s="7">
+        <v>0.14908117210154487</v>
+      </c>
+      <c r="J218" s="7">
+        <v>9.1287745124281575E-2</v>
+      </c>
+      <c r="K218" s="7">
+        <v>0.10490694224676898</v>
+      </c>
+      <c r="L218" s="7">
+        <v>4.4221314801877916E-2</v>
+      </c>
+      <c r="M218" s="7">
+        <v>0.12161190713798299</v>
+      </c>
+      <c r="N218" s="7">
+        <v>0.16994163176763841</v>
+      </c>
+      <c r="O218" s="7">
+        <v>1.2578529894443979E-2</v>
+      </c>
+      <c r="P218" s="7">
+        <v>0.1059757941518973</v>
+      </c>
+      <c r="Q218" s="7">
+        <v>7.3991610070004654E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>45412</v>
       </c>
@@ -5502,8 +12076,38 @@
       <c r="G219" s="5">
         <v>5.0778548520357146E-2</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H219" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I219" s="7">
+        <v>0.14454946819303158</v>
+      </c>
+      <c r="J219" s="7">
+        <v>8.5623206729622994E-2</v>
+      </c>
+      <c r="K219" s="7">
+        <v>0.10324997686515791</v>
+      </c>
+      <c r="L219" s="7">
+        <v>4.5046970858697861E-2</v>
+      </c>
+      <c r="M219" s="7">
+        <v>0.12332220527410012</v>
+      </c>
+      <c r="N219" s="7">
+        <v>0.17368546706999172</v>
+      </c>
+      <c r="O219" s="7">
+        <v>1.2725630540571884E-2</v>
+      </c>
+      <c r="P219" s="7">
+        <v>0.10691029217814685</v>
+      </c>
+      <c r="Q219" s="7">
+        <v>7.0943130359923515E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>45443</v>
       </c>
@@ -5525,8 +12129,38 @@
       <c r="G220" s="5">
         <v>4.7513000934737079E-2</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I220" s="7">
+        <v>0.1490356365235784</v>
+      </c>
+      <c r="J220" s="7">
+        <v>8.7031416899551434E-2</v>
+      </c>
+      <c r="K220" s="7">
+        <v>0.10355016172290121</v>
+      </c>
+      <c r="L220" s="7">
+        <v>4.7876790082615278E-2</v>
+      </c>
+      <c r="M220" s="7">
+        <v>0.1217502171462711</v>
+      </c>
+      <c r="N220" s="7">
+        <v>0.17325764278269071</v>
+      </c>
+      <c r="O220" s="7">
+        <v>1.1847442851875273E-2</v>
+      </c>
+      <c r="P220" s="7">
+        <v>0.10843550409578588</v>
+      </c>
+      <c r="Q220" s="7">
+        <v>6.5853899612858535E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>45473</v>
       </c>
@@ -5548,8 +12182,38 @@
       <c r="G221" s="5">
         <v>4.7627503685592758E-2</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I221" s="7">
+        <v>0.15560884818328427</v>
+      </c>
+      <c r="J221" s="7">
+        <v>8.1723390106354626E-2</v>
+      </c>
+      <c r="K221" s="7">
+        <v>0.10529137367785779</v>
+      </c>
+      <c r="L221" s="7">
+        <v>4.8272203359298931E-2</v>
+      </c>
+      <c r="M221" s="7">
+        <v>0.12280267192753065</v>
+      </c>
+      <c r="N221" s="7">
+        <v>0.16765036018342683</v>
+      </c>
+      <c r="O221" s="7">
+        <v>1.2100845952758526E-2</v>
+      </c>
+      <c r="P221" s="7">
+        <v>0.10881737350996214</v>
+      </c>
+      <c r="Q221" s="7">
+        <v>6.594443205210089E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>45504</v>
       </c>
@@ -5571,8 +12235,38 @@
       <c r="G222" s="5">
         <v>4.8889451334474698E-2</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I222" s="7">
+        <v>0.15788297682856473</v>
+      </c>
+      <c r="J222" s="7">
+        <v>8.2545570327257928E-2</v>
+      </c>
+      <c r="K222" s="7">
+        <v>0.1050630127918066</v>
+      </c>
+      <c r="L222" s="7">
+        <v>4.831001286626737E-2</v>
+      </c>
+      <c r="M222" s="7">
+        <v>0.1204383402993678</v>
+      </c>
+      <c r="N222" s="7">
+        <v>0.16832733279740852</v>
+      </c>
+      <c r="O222" s="7">
+        <v>1.1854761438033962E-2</v>
+      </c>
+      <c r="P222" s="7">
+        <v>0.10702706680801606</v>
+      </c>
+      <c r="Q222" s="7">
+        <v>6.4865914136614328E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>45535</v>
       </c>
@@ -5594,8 +12288,38 @@
       <c r="G223" s="5">
         <v>5.2296389372848633E-2</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I223" s="7">
+        <v>0.1590257248918896</v>
+      </c>
+      <c r="J223" s="7">
+        <v>8.2735637873750809E-2</v>
+      </c>
+      <c r="K223" s="7">
+        <v>0.10543488059685571</v>
+      </c>
+      <c r="L223" s="7">
+        <v>4.8186371727547708E-2</v>
+      </c>
+      <c r="M223" s="7">
+        <v>0.11929634368405934</v>
+      </c>
+      <c r="N223" s="7">
+        <v>0.16538743280000798</v>
+      </c>
+      <c r="O223" s="7">
+        <v>1.1401377935649623E-2</v>
+      </c>
+      <c r="P223" s="7">
+        <v>0.10786838006544641</v>
+      </c>
+      <c r="Q223" s="7">
+        <v>6.4383301716664759E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>45565</v>
       </c>
@@ -5617,8 +12341,38 @@
       <c r="G224" s="5">
         <v>5.8348685138349052E-2</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I224" s="7">
+        <v>0.15838778590966504</v>
+      </c>
+      <c r="J224" s="7">
+        <v>8.7300880658858507E-2</v>
+      </c>
+      <c r="K224" s="7">
+        <v>0.10083074780091528</v>
+      </c>
+      <c r="L224" s="7">
+        <v>4.6104198452048661E-2</v>
+      </c>
+      <c r="M224" s="7">
+        <v>0.12122416657034021</v>
+      </c>
+      <c r="N224" s="7">
+        <v>0.16235012661263704</v>
+      </c>
+      <c r="O224" s="7">
+        <v>1.1615931067369989E-2</v>
+      </c>
+      <c r="P224" s="7">
+        <v>0.10704599647189551</v>
+      </c>
+      <c r="Q224" s="7">
+        <v>6.3371254675007774E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>45596</v>
       </c>
@@ -5640,8 +12394,38 @@
       <c r="G225" s="5">
         <v>5.2033263246533429E-2</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I225" s="7">
+        <v>0.16357467359470285</v>
+      </c>
+      <c r="J225" s="7">
+        <v>8.5304998998185694E-2</v>
+      </c>
+      <c r="K225" s="7">
+        <v>0.10280565012276029</v>
+      </c>
+      <c r="L225" s="7">
+        <v>4.6729671707470319E-2</v>
+      </c>
+      <c r="M225" s="7">
+        <v>0.12208261862281276</v>
+      </c>
+      <c r="N225" s="7">
+        <v>0.16464113245931433</v>
+      </c>
+      <c r="O225" s="7">
+        <v>1.1632130481491715E-2</v>
+      </c>
+      <c r="P225" s="7">
+        <v>0.10693673100961337</v>
+      </c>
+      <c r="Q225" s="7">
+        <v>6.2579563432280022E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>45626</v>
       </c>
@@ -5663,8 +12447,38 @@
       <c r="G226" s="5">
         <v>4.9699979058719104E-2</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I226" s="7">
+        <v>0.17258579271452604</v>
+      </c>
+      <c r="J226" s="7">
+        <v>8.4403603003443725E-2</v>
+      </c>
+      <c r="K226" s="7">
+        <v>0.10597311302922049</v>
+      </c>
+      <c r="L226" s="7">
+        <v>4.6271100321355327E-2</v>
+      </c>
+      <c r="M226" s="7">
+        <v>0.11932042881785047</v>
+      </c>
+      <c r="N226" s="7">
+        <v>0.16217545703707997</v>
+      </c>
+      <c r="O226" s="7">
+        <v>1.1317088890924639E-2</v>
+      </c>
+      <c r="P226" s="7">
+        <v>0.10506176996049106</v>
+      </c>
+      <c r="Q226" s="7">
+        <v>6.0759673224254414E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>45657</v>
       </c>
@@ -5686,8 +12500,38 @@
       <c r="G227" s="5">
         <v>4.0815505964399652E-2</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I227" s="7">
+        <v>0.20237453857966636</v>
+      </c>
+      <c r="J227" s="7">
+        <v>7.7585009594946769E-2</v>
+      </c>
+      <c r="K227" s="7">
+        <v>0.10215184678562451</v>
+      </c>
+      <c r="L227" s="7">
+        <v>5.2512716465285388E-2</v>
+      </c>
+      <c r="M227" s="7">
+        <v>0.10344963049844612</v>
+      </c>
+      <c r="N227" s="7">
+        <v>0.17132063108981013</v>
+      </c>
+      <c r="O227" s="7">
+        <v>4.1226875991968526E-3</v>
+      </c>
+      <c r="P227" s="7">
+        <v>0.1025028686067736</v>
+      </c>
+      <c r="Q227" s="7">
+        <v>5.0702107706077616E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>45688</v>
       </c>
@@ -5709,8 +12553,38 @@
       <c r="G228" s="5">
         <v>3.2445617720234896E-2</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I228" s="7">
+        <v>0.21671779548701406</v>
+      </c>
+      <c r="J228" s="7">
+        <v>8.1006399536286883E-2</v>
+      </c>
+      <c r="K228" s="7">
+        <v>0.10443475765633356</v>
+      </c>
+      <c r="L228" s="7">
+        <v>5.2004271647814966E-2</v>
+      </c>
+      <c r="M228" s="7">
+        <v>0.10401057352464198</v>
+      </c>
+      <c r="N228" s="7">
+        <v>0.16859885302058433</v>
+      </c>
+      <c r="O228" s="7">
+        <v>4.0396814451965253E-3</v>
+      </c>
+      <c r="P228" s="7">
+        <v>9.6661660841811853E-2</v>
+      </c>
+      <c r="Q228" s="7">
+        <v>4.8843909744498107E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>45716</v>
       </c>
@@ -5732,8 +12606,38 @@
       <c r="G229" s="5">
         <v>2.4001885483058427E-2</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I229" s="7">
+        <v>0.21621671355335656</v>
+      </c>
+      <c r="J229" s="7">
+        <v>8.3494675747270333E-2</v>
+      </c>
+      <c r="K229" s="7">
+        <v>0.10111408087065457</v>
+      </c>
+      <c r="L229" s="7">
+        <v>5.1601560240405325E-2</v>
+      </c>
+      <c r="M229" s="7">
+        <v>0.10375187688985094</v>
+      </c>
+      <c r="N229" s="7">
+        <v>0.16725267649706677</v>
+      </c>
+      <c r="O229" s="7">
+        <v>4.008903864358016E-3</v>
+      </c>
+      <c r="P229" s="7">
+        <v>9.2578288503931405E-2</v>
+      </c>
+      <c r="Q229" s="7">
+        <v>6.2111686191597827E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>45747</v>
       </c>
@@ -5755,8 +12659,39 @@
       <c r="G230" s="5">
         <v>3.4730170104342359E-2</v>
       </c>
+      <c r="H230" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I230" s="7">
+        <v>0.21420881651393428</v>
+      </c>
+      <c r="J230" s="7">
+        <v>7.4540075341681389E-2</v>
+      </c>
+      <c r="K230" s="7">
+        <v>0.10329475104851354</v>
+      </c>
+      <c r="L230" s="7">
+        <v>4.7160647876221026E-2</v>
+      </c>
+      <c r="M230" s="7">
+        <v>0.11469876492988745</v>
+      </c>
+      <c r="N230" s="7">
+        <v>0.16962093313536178</v>
+      </c>
+      <c r="O230" s="7">
+        <v>3.9532503147940001E-3</v>
+      </c>
+      <c r="P230" s="7">
+        <v>8.7831398326790183E-2</v>
+      </c>
+      <c r="Q230" s="7">
+        <v>5.8184168669540764E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>